--- a/kx_api/test_cases/api_case.xlsx
+++ b/kx_api/test_cases/api_case.xlsx
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"accessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjEiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoiYWRtaW4iLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6ImU1MTE5NDNlLWY5OTUtZjk5NS0yMmJmLTM5ZjE3NjM3MWQ3MSIsImh0dHA6Ly9zY2hlbWFzLm1pY3Jvc29mdC5jb20vd3MvMjAwOC8wNi9pZGVudGl0eS9jbGFpbXMvcm9sZSI6IkFkbWluIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjEiLCJqdGkiOiIwOTVmNTc5NS1kYmE3LTQ5MTUtOTE2MC1hNDY1OGE3Y2ZkZWQiLCJpYXQiOjE1NzM3MjA2ODEsIkp3dFdlYlVuaXF1ZUlkIjoiY2IwZTAzYzYtOGY0Ni00NjkwLTgwNzEtMWJlZTY3NGVkZWFlIiwiSnd0V2ViVGVuYW50SWQiOiIxIiwibmJmIjoxNTczNzIwNjgxLCJleHAiOjE1NzM4MDcwODEsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.55iCqP-1P-vldUhcpZ3YnDPz8zRgTNmufCFXkyzJ4GY","encryptedAccessToken":"wNYmO41/48SHNstaLVXxHCCre29BZQl1NhC6NM3R3rzpXtPQxVzH6jEzA/QhXFN5tu6Fk7pO53uppm1mVXMZgxbyRVz26dnepi/FyB6axBY+6gq1GL+uRQgoiFUCjRN2p8w6LevViwKlHyWZZJZO1DGVSjAi1m2U+og9pkHw9/QR4Nl/DPnoP9JYDMpZ1zxx09u6s0GZ9/Q5Sjk+L0UfcSCbl38X8he5w9UIn/Hvxh7ysM1CiPLsoOwtbiieSRVmrmt0JjnipAn4/K283F8GrGwzwgehWsqefmUnM0ckMwP9ZAdwQxWDhxv0IqNw4tDhwUYs/1SYdYozdNzgByhgNOBPzQDObNLlWc4vV5VMOiYHBOMNLV6WmJ4h3l9zRRXmjfn2He226iurtcv029//9vcQ4k+7iEv464BkdzAxdfTKUBj2kJ1gjYDtrLg/qWyRu/9fno69wGq1hJoj60As3lu8n0RUfOXz6E0ZVc53G4obkLrkeXDLSlFSlhRcmETzbW0oio12RjVwvy4O3qUO4Ed8buEQPjpy7bjikSh3Rv7dpDWsFAt4pjnuZU9X/H7hBVYoEkqkliRv3lQWxVzKJuVQUgBS4pW3IitFjSCO3aKkVBVvNoEdfjKgmn7q/dvJPbA6CwqFbzAKhwz4rxSxlo5AqlLhaOofxKiMf+CGXMlqQfUaxlGDqvf8f37sYolSlEhoFVaygINf3cAdnSdCO1mwnZLqX96KVIAdl+viQjs8Q2dP0g1G3Xv6rXRZ+kKzWt/4/xUDiucKlBhc3/F+z2gt63M0FXniAIx68+ClYqYaYjaZ3n+6Hy4fdxSKK3Z7S5VhtMFKpgdSJDIzNvbc+n1vxAzzUt6XMref13vxKLXE6JlmeMiyLmoLW66EPaaci9jU430dsgWJjkbRpp7axzTY4Ayg3Doc3PQLGkM2pnNHz7Cm8+xNnxLjzG3WzsfCWkGPTmy+JtSM7Hz3WNUx0A0cGtQexEPZp7eC0wiuLfKwdSlhHnkIWZ80c5Oosoj7lzoXeG/izhJMPKUtPyZwjkaI6HMMwBuOol4W5SYnrslK3kwlTRqjN0TxLWC1BdcZG8SeEZxbosTdT3cTP/vahzsU07GJy9o6lRuE2LMIk6A=","expireInSeconds":86400,"userId":1},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"accessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjEiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoiYWRtaW4iLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6ImU1MTE5NDNlLWY5OTUtZjk5NS0yMmJmLTM5ZjE3NjM3MWQ3MSIsImh0dHA6Ly9zY2hlbWFzLm1pY3Jvc29mdC5jb20vd3MvMjAwOC8wNi9pZGVudGl0eS9jbGFpbXMvcm9sZSI6IkFkbWluIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjEiLCJqdGkiOiI2NTYyOTEwYy04ODI0LTQ4NTktYmI0NS0zNjA3MTM4N2EwNTkiLCJpYXQiOjE1NzM3ODg4NDMsIkp3dFdlYlVuaXF1ZUlkIjoiNzNiN2U1ZTQtMzljMS00OTM2LThhOTAtMDJiYjMwOWUxNGU4IiwiSnd0V2ViVGVuYW50SWQiOiIxIiwibmJmIjoxNTczNzg4ODQzLCJleHAiOjE1NzM4NzUyNDMsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.4PvcvTuImRsxtGBk7HrSdEUV4dacNkUso2nqWea0pGc","encryptedAccessToken":"wNYmO41/48SHNstaLVXxHCCre29BZQl1NhC6NM3R3rzpXtPQxVzH6jEzA/QhXFN5tu6Fk7pO53uppm1mVXMZgxbyRVz26dnepi/FyB6axBY+6gq1GL+uRQgoiFUCjRN2p8w6LevViwKlHyWZZJZO1DGVSjAi1m2U+og9pkHw9/QR4Nl/DPnoP9JYDMpZ1zxx09u6s0GZ9/Q5Sjk+L0UfcSCbl38X8he5w9UIn/Hvxh7ysM1CiPLsoOwtbiieSRVmrmt0JjnipAn4/K283F8GrGwzwgehWsqefmUnM0ckMwP9ZAdwQxWDhxv0IqNw4tDhwUYs/1SYdYozdNzgByhgNOBPzQDObNLlWc4vV5VMOiYHBOMNLV6WmJ4h3l9zRRXmjfn2He226iurtcv029//9vcQ4k+7iEv464BkdzAxdfTKUBj2kJ1gjYDtrLg/qWyRu/9fno69wGq1hJoj60As3lu8n0RUfOXz6E0ZVc53G4obkLrkeXDLSlFSlhRcmETzbW0oio12RjVwvy4O3qUO4Ed8buEQPjpy7bjikSh3Rv7dpDWsFAt4pjnuZU9X/H7hBVYoEkqkliRv3lQWxVzKJuVQUgBS4pW3IitFjSCO3aKkVBVvNoEdfjKgmn7q/dvJPbA6CwqFbzAKhwz4rxSxlo5AqlLhaOofxKiMf+CGXMlqQfUaxlGDqvf8f37sYolSBZ5SNsX1OlO8AyChvQJ3jXfLKd8F8SRJzrJwMrQLZTjWEJv/0xNTfxZARwcFMnMbcCQACoT3NCTPCWCeb9VR2lCbQAPO0HMbqs4hzjy2AlwU732j824WNuaFEG7crMCNx8QgbtywCfsdZ0DPcVHhJSBRhCUIhj22oYVn79bvYxiw7/wpaSg9YwA5uhOZcJRREuDl/64Yry7AGg0dYGAa7Qsqy2jdrMgZyQ4LiR8fO5LF3yrnpaLH8Tze6Vb4R768uNEYdn2fDgeCAZdEv4E/yM1Rrz8p26i7bULH5ysho9i3nThJBAOq85V2bHLlXDv70dC7CfApP0AEkkOng1rlTNalnmhxSDZ4Dwh5Y9FqnZ+v2kO5b6Vldcn83Pj7XfMVsTqW61hZ+VuGsQAIFPQRMGJUeVsJ0muGcWYEd2iekBo=","expireInSeconds":86400,"userId":1},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"id":"644456041639051264","sort":"644456041639051264","isActive":true,"code":"CD","name":"红旗连锁","pyCode":"HQLS","businessType":1,"businessTypeName":"直营","province":"四川省","city":"成都市","zone":"武侯区","street":"武侯大道888号","address":"新希望大厦B座","openTime":"08:00","closeTime":"22:00","storePhone":"15222222222","longitude":"经度","latitude":"纬度","imageUrls":[]},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"id":"644741889563557888","sort":"644741889563557888","isActive":true,"code":"CD","name":"红旗连锁","pyCode":"HQLS","businessType":1,"businessTypeName":"直营","province":"四川省","city":"成都市","zone":"武侯区","street":"武侯大道888号","address":"新希望大厦B座","openTime":"08:00","closeTime":"22:00","storePhone":"15222222222","longitude":"经度","latitude":"纬度","imageUrls":[]},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"id":"644456050296094720","sort":"644456050296094720","isActive":true,"storeId":"644456041639051264","code":"1","name":"1","pyCode":"1","communicationPassword":"123456","machineName":"","storeIdName":"红旗连锁","storeCode":"CD"},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"id":"644741897503375360","sort":"644741897503375360","isActive":true,"storeId":"644741889563557888","code":"1","name":"1","pyCode":"1","communicationPassword":"123456","machineName":"","storeIdName":"红旗连锁","storeCode":"CD"},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{"Result":{"Id":644456064107937792,"TenantId":1,"StoreId":644456041639051264,"PosId":644456050296094720,"Platform":1,"MachineMac":"00-50-56-C0-00-01","MachineName":"DESKTOP-5T5IDNR","BindTime":"2019-11-14T16:38:19.1004249+08:00","UnBindTime":"0001-01-01T00:00:00","BaseStore":null,"ManagePos":null},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"Id":644741907888472064,"TenantId":1,"StoreId":644741889563557888,"PosId":644741897503375360,"Platform":1,"MachineMac":"00-50-56-C0-00-01","MachineName":"DESKTOP-5T5IDNR","BindTime":"2019-11-15T11:34:09.5682459+08:00","UnBindTime":"0001-01-01T00:00:00","BaseStore":null,"ManagePos":null},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":2,"UserName":"ly","PosClientSalt":"501b1f00-2939-4e8a-b671-a5482df4805a","PosClientPassword":"E4680A1D7E43785850FC678D5286158F57972472","Permission":null},{"Id":1,"UserName":"admin","PosClientSalt":"fadf4e02-1c7c-49dd-bef0-9f0a201e7222","PosClientPassword":"3E337B184C41365203FC721F1C8E0C113A0BB37E","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":1,"UserName":"admin","PosClientSalt":"fadf4e02-1c7c-49dd-bef0-9f0a201e7222","PosClientPassword":"3E337B184C41365203FC721F1C8E0C113A0BB37E","Permission":null},{"Id":2,"UserName":"ly","PosClientSalt":"501b1f00-2939-4e8a-b671-a5482df4805a","PosClientPassword":"E4680A1D7E43785850FC678D5286158F57972472","Permission":null},{"Id":3,"UserName":"zh","PosClientSalt":"655111a0-86bc-4e12-994b-8c9aa72d6687","PosClientPassword":"B91BA1FC0BA8ED717D35E6AEA290C80B29E31E59","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="I94" s="0" t="inlineStr">
         <is>
-          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiIwMDAxZDI4NC02NzU4LTQ2ZWYtYWYxMS0yMzczMzM1MGQ2MTgiLCJpYXQiOjE1NzM3MjA3MTAsIkp3dENsaWVudFVuaXF1ZUlkIjoiNzBjYjBkNmQtNmYwOC00OGE4LWI2YzYtN2I4ODBlOTBiZGEzIiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NDQ1NjA0MTYzOTA1MTI2NCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ0NDU2MDUwMjk2MDk0NzIwIiwibmJmIjoxNTczNzIwNzEwLCJleHAiOjE1NzM4MDcxMTAsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.rI4PS7viKkLZvKFcQqhuaAAPj21iINurL7kvFAWHJKc","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiI5MmYzYWUwZi0xYzIwLTQ2MmEtODI3My1iMzEyNWY4MmI4MmMiLCJpYXQiOjE1NzM3ODg4NTksIkp3dENsaWVudFVuaXF1ZUlkIjoiOGY2YjAxYWMtMDhkMy00ODkxLTlmZDUtMTQ2ZGNjYzNmMTljIiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NDc0MTg4OTU2MzU1Nzg4OCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ0NzQxODk3NTAzMzc1MzYwIiwibmJmIjoxNTczNzg4ODU5LCJleHAiOjE1NzM4NzUyNTksImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.g3Y7yeqpFQd63ZJbp7_rhMA_HeFQxc4sceKwY6k7Dd4","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J94" s="0" t="inlineStr">

--- a/kx_api/test_cases/api_case.xlsx
+++ b/kx_api/test_cases/api_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" state="visible" r:id="rId1"/>
@@ -64,28 +64,29 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -99,16 +100,15 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -122,23 +122,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,6 +175,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -168,30 +191,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -205,19 +205,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,25 +253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,19 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,31 +343,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,67 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,17 +399,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,7 +427,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,44 +488,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -516,16 +516,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
@@ -534,115 +534,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="17" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="16" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="19" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="8" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"accessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjEiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoiYWRtaW4iLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6ImU1MTE5NDNlLWY5OTUtZjk5NS0yMmJmLTM5ZjE3NjM3MWQ3MSIsImh0dHA6Ly9zY2hlbWFzLm1pY3Jvc29mdC5jb20vd3MvMjAwOC8wNi9pZGVudGl0eS9jbGFpbXMvcm9sZSI6IkFkbWluIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjEiLCJqdGkiOiI2NTYyOTEwYy04ODI0LTQ4NTktYmI0NS0zNjA3MTM4N2EwNTkiLCJpYXQiOjE1NzM3ODg4NDMsIkp3dFdlYlVuaXF1ZUlkIjoiNzNiN2U1ZTQtMzljMS00OTM2LThhOTAtMDJiYjMwOWUxNGU4IiwiSnd0V2ViVGVuYW50SWQiOiIxIiwibmJmIjoxNTczNzg4ODQzLCJleHAiOjE1NzM4NzUyNDMsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.4PvcvTuImRsxtGBk7HrSdEUV4dacNkUso2nqWea0pGc","encryptedAccessToken":"wNYmO41/48SHNstaLVXxHCCre29BZQl1NhC6NM3R3rzpXtPQxVzH6jEzA/QhXFN5tu6Fk7pO53uppm1mVXMZgxbyRVz26dnepi/FyB6axBY+6gq1GL+uRQgoiFUCjRN2p8w6LevViwKlHyWZZJZO1DGVSjAi1m2U+og9pkHw9/QR4Nl/DPnoP9JYDMpZ1zxx09u6s0GZ9/Q5Sjk+L0UfcSCbl38X8he5w9UIn/Hvxh7ysM1CiPLsoOwtbiieSRVmrmt0JjnipAn4/K283F8GrGwzwgehWsqefmUnM0ckMwP9ZAdwQxWDhxv0IqNw4tDhwUYs/1SYdYozdNzgByhgNOBPzQDObNLlWc4vV5VMOiYHBOMNLV6WmJ4h3l9zRRXmjfn2He226iurtcv029//9vcQ4k+7iEv464BkdzAxdfTKUBj2kJ1gjYDtrLg/qWyRu/9fno69wGq1hJoj60As3lu8n0RUfOXz6E0ZVc53G4obkLrkeXDLSlFSlhRcmETzbW0oio12RjVwvy4O3qUO4Ed8buEQPjpy7bjikSh3Rv7dpDWsFAt4pjnuZU9X/H7hBVYoEkqkliRv3lQWxVzKJuVQUgBS4pW3IitFjSCO3aKkVBVvNoEdfjKgmn7q/dvJPbA6CwqFbzAKhwz4rxSxlo5AqlLhaOofxKiMf+CGXMlqQfUaxlGDqvf8f37sYolSBZ5SNsX1OlO8AyChvQJ3jXfLKd8F8SRJzrJwMrQLZTjWEJv/0xNTfxZARwcFMnMbcCQACoT3NCTPCWCeb9VR2lCbQAPO0HMbqs4hzjy2AlwU732j824WNuaFEG7crMCNx8QgbtywCfsdZ0DPcVHhJSBRhCUIhj22oYVn79bvYxiw7/wpaSg9YwA5uhOZcJRREuDl/64Yry7AGg0dYGAa7Qsqy2jdrMgZyQ4LiR8fO5LF3yrnpaLH8Tze6Vb4R768uNEYdn2fDgeCAZdEv4E/yM1Rrz8p26i7bULH5ysho9i3nThJBAOq85V2bHLlXDv70dC7CfApP0AEkkOng1rlTNalnmhxSDZ4Dwh5Y9FqnZ+v2kO5b6Vldcn83Pj7XfMVsTqW61hZ+VuGsQAIFPQRMGJUeVsJ0muGcWYEd2iekBo=","expireInSeconds":86400,"userId":1},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"accessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjEiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoiYWRtaW4iLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6ImU1MTE5NDNlLWY5OTUtZjk5NS0yMmJmLTM5ZjE3NjM3MWQ3MSIsImh0dHA6Ly9zY2hlbWFzLm1pY3Jvc29mdC5jb20vd3MvMjAwOC8wNi9pZGVudGl0eS9jbGFpbXMvcm9sZSI6IkFkbWluIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjEiLCJqdGkiOiIwYzk1Mjk0Ni1kZTg1LTQxN2UtYjE1Mi1kNmU2ZTU2YmZkOTciLCJpYXQiOjE1NzQxMzA0NjAsIkp3dFdlYlVuaXF1ZUlkIjoiZTU3Y2NmYjEtOTE4YS00OTc0LWExZDgtYzMwOTljODc5M2I4IiwiSnd0V2ViVGVuYW50SWQiOiIxIiwibmJmIjoxNTc0MTMwNDYwLCJleHAiOjE1NzQyMTY4NjAsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.M1wV8iEzHaMNbfPvmRM2XG9OEWic6s7VdY185uHOfY8","encryptedAccessToken":"wNYmO41/48SHNstaLVXxHCCre29BZQl1NhC6NM3R3rzpXtPQxVzH6jEzA/QhXFN5tu6Fk7pO53uppm1mVXMZgxbyRVz26dnepi/FyB6axBY+6gq1GL+uRQgoiFUCjRN2p8w6LevViwKlHyWZZJZO1DGVSjAi1m2U+og9pkHw9/QR4Nl/DPnoP9JYDMpZ1zxx09u6s0GZ9/Q5Sjk+L0UfcSCbl38X8he5w9UIn/Hvxh7ysM1CiPLsoOwtbiieSRVmrmt0JjnipAn4/K283F8GrGwzwgehWsqefmUnM0ckMwP9ZAdwQxWDhxv0IqNw4tDhwUYs/1SYdYozdNzgByhgNOBPzQDObNLlWc4vV5VMOiYHBOMNLV6WmJ4h3l9zRRXmjfn2He226iurtcv029//9vcQ4k+7iEv464BkdzAxdfTKUBj2kJ1gjYDtrLg/qWyRu/9fno69wGq1hJoj60As3lu8n0RUfOXz6E0ZVc53G4obkLrkeXDLSlFSlhRcmETzbW0oio12RjVwvy4O3qUO4Ed8buEQPjpy7bjikSh3Rv7dpDWsFAt4pjnuZU9X/H7hBVYoEkqkliRv3lQWxVzKJuVQUgBS4pW3IitFjSCO3aKkVBVvNoEdfjKgmn7q/dvJPbA6CwqFbzAKhwz4rxSxlo5AqlLhaOofxKiMf+CGXMlqQfUaxlGDqvf8f37sYolSP85ZYK+BVNoy1p7NKdqOoDUgIvZIFVLyPYurNafGb07ucKugK/lRiU1GGdpimcq4gX47eB3Vfr6fIfuXA5IFdemqKg/gWzvSp6X37CGxuTGKWCjSVtdFXPK+PMupIlBOenkCQyolE2t/kA6Hk8LrJs52zQdlIKbhUKhRcFrktjeuwJzMUFW79nsqorVbn712TJ+fqV01KrsoBbtOVL46WhcUJl1zXQr1GODWZwcJ+ciR7TDDZLAm/edx6JAw+pWf3lKU3YA+x0QBefL9udX77vjj5XRbtd8vnN9JEQ/F4ct4MEwIODq1wX5tEpCJsAI+OU437fcOp+9kdQk1HIx9Ws0on3N5+bB3UZMUl283hS74uClQRttPAkHj4i7A73GtxZ4YE8Q5bjXjdAArZ8boc4fIcK+CYC6BTQls7JaXOo4=","expireInSeconds":86400,"userId":1},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
@@ -1172,7 +1172,7 @@
  "pyCode":"HQLS",
  "businessType":1,
  "businessTypeName":"直营",
- "province":"四川省",
+ "province":"四川",
  "city":"成都市",
  "zone":"武侯区",
  "street":"武侯大道888号",
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"id":"644741889563557888","sort":"644741889563557888","isActive":true,"code":"CD","name":"红旗连锁","pyCode":"HQLS","businessType":1,"businessTypeName":"直营","province":"四川省","city":"成都市","zone":"武侯区","street":"武侯大道888号","address":"新希望大厦B座","openTime":"08:00","closeTime":"22:00","storePhone":"15222222222","longitude":"经度","latitude":"纬度","imageUrls":[]},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"id":"646174733976469504","sort":"646174733976469504","isActive":true,"code":"CD15","name":"红旗连锁15","pyCode":"HQLS","businessType":1,"businessTypeName":"直营","province":"四川省","city":"成都市","zone":"武侯区","street":"武侯大道888号","address":"新希望大厦B座","openTime":"08:00","closeTime":"22:00","storePhone":"15222222222","longitude":"经度","latitude":"纬度","imageUrls":[]},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"id":"644741897503375360","sort":"644741897503375360","isActive":true,"storeId":"644741889563557888","code":"1","name":"1","pyCode":"1","communicationPassword":"123456","machineName":"","storeIdName":"红旗连锁","storeCode":"CD"},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"id":"646174740603469824","sort":"646174740603469824","isActive":true,"storeId":"646174733976469504","code":"15","name":"15","pyCode":"15","communicationPassword":"123456","machineName":"","storeIdName":"红旗连锁15","storeCode":"CD15"},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -1332,8 +1332,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":1
 }</t>
         </is>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The TenancyName field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The TenancyName field is required.","Members":["tenancyName"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The TenancyName field is required.\r\n","ValidationErrors":[{"Message":"The TenancyName field is required.","Members":["tenancyName"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
@@ -1386,8 +1386,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":1
 }</t>
         </is>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - Error parsing NaN value. Path 'TenancyName', line 2, position 17.\r\n - Unexpected character encountered while parsing value: o. Path 'TenancyName', line 2, position 17.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"Error parsing NaN value. Path 'TenancyName', line 2, position 17.","Members":["tenancyName"]},{"Message":"Unexpected character encountered while parsing value: o. Path 'TenancyName', line 2, position 17.","Members":["tenancyName"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - Error parsing NaN value. Path 'TenancyName', line 2, position 17.\r\n - Unexpected character encountered while parsing value: o. Path 'TenancyName', line 2, position 17.\r\n","ValidationErrors":[{"Message":"Error parsing NaN value. Path 'TenancyName', line 2, position 17.","Members":["tenancyName"]},{"Message":"Unexpected character encountered while parsing value: o. Path 'TenancyName', line 2, position 17.","Members":["tenancyName"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
@@ -1440,8 +1440,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":1
 }</t>
         </is>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"企业编号无效！","Details":"UserFriendlyException: 企业编号无效！\r\nSTACK TRACE:    at GraspSaas.Grasp.Auth.AuthAppService.Bind(BindInput input) in E:\\Worked\\@GraspShop\\GraspPosShop.Api\\src\\GraspSaas.PosApi.Application\\Grasp\\Auth\\AuthAppService.cs:line 111\r\n   at lambda_method(Closure , Object )\r\n   at Microsoft.AspNetCore.Mvc.Internal.ActionMethodExecutor.AwaitableObjectResultExecutor.Execute(IActionResultTypeMapper mapper, ObjectMethodExecutor executor, Object controller, Object[] arguments)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeActionMethodAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"企业编号无效！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
@@ -1494,8 +1494,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":1
 }</t>
         </is>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"企业编号无效！","Details":"UserFriendlyException: 企业编号无效！\r\nSTACK TRACE:    at GraspSaas.Grasp.Auth.AuthAppService.Bind(BindInput input) in E:\\Worked\\@GraspShop\\GraspPosShop.Api\\src\\GraspSaas.PosApi.Application\\Grasp\\Auth\\AuthAppService.cs:line 111\r\n   at lambda_method(Closure , Object )\r\n   at Microsoft.AspNetCore.Mvc.Internal.ActionMethodExecutor.AwaitableObjectResultExecutor.Execute(IActionResultTypeMapper mapper, ObjectMethodExecutor executor, Object controller, Object[] arguments)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeActionMethodAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"企业编号无效！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -1548,8 +1548,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":""
 }</t>
         </is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - Error converting value {null} to type 'System.Int32'. Path 'Platform', line 8, position 15.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"Error converting value {null} to type 'System.Int32'. Path 'Platform', line 8, position 15.","Members":["platform"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - Error converting value {null} to type 'System.Int32'. Path 'Platform', line 8, position 15.\r\n","ValidationErrors":[{"Message":"Error converting value {null} to type 'System.Int32'. Path 'Platform', line 8, position 15.","Members":["platform"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
@@ -1602,8 +1602,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":None
 }</t>
         </is>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - Error parsing NaN value. Path 'Platform', line 8, position 14.\r\n - Unexpected character encountered while parsing value: o. Path 'Platform', line 8, position 14.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"Error parsing NaN value. Path 'Platform', line 8, position 14.","Members":["platform"]},{"Message":"Unexpected character encountered while parsing value: o. Path 'Platform', line 8, position 14.","Members":["platform"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - Error parsing NaN value. Path 'Platform', line 8, position 14.\r\n - Unexpected character encountered while parsing value: o. Path 'Platform', line 8, position 14.\r\n","ValidationErrors":[{"Message":"Error parsing NaN value. Path 'Platform', line 8, position 14.","Members":["platform"]},{"Message":"Unexpected character encountered while parsing value: o. Path 'Platform', line 8, position 14.","Members":["platform"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
@@ -1656,8 +1656,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":3
 }</t>
         </is>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The field Platform must be between 1 and 2.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The field Platform must be between 1 and 2.","Members":["platform"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The field Platform must be between 1 and 2.\r\n","ValidationErrors":[{"Message":"The field Platform must be between 1 and 2.","Members":["platform"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
@@ -1710,8 +1710,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":"1"
 }</t>
         </is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>{"Result":{"Id":641935270970654720,"TenantId":1,"StoreId":641931381798076416,"PosId":641931438563786752,"Platform":1,"MachineMac":"00-50-56-C0-00-01","MachineName":"DESKTOP-5T5IDNR","BindTime":"2019-11-07T17:41:35.1820238+08:00","UnBindTime":"0001-01-01T00:00:00","BaseStore":null,"ManagePos":null},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"Id":646174793673998336,"TenantId":1,"StoreId":646174733976469504,"PosId":646174740603469824,"Platform":1,"MachineMac":"00-50-56-C0-00-01","MachineName":"DESKTOP-5T5IDNR","BindTime":"2019-11-19T10:27:56.1612573+08:00","UnBindTime":"0001-01-01T00:00:00","StoreName":"红旗连锁15","StoreCode":"CD15","PosName":"15","PosCode":"15","GraspPayAccount":null},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{"Result":{"Id":644741907888472064,"TenantId":1,"StoreId":644741889563557888,"PosId":644741897503375360,"Platform":1,"MachineMac":"00-50-56-C0-00-01","MachineName":"DESKTOP-5T5IDNR","BindTime":"2019-11-15T11:34:09.5682459+08:00","UnBindTime":"0001-01-01T00:00:00","BaseStore":null,"ManagePos":null},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"该POS已被绑定，请先解绑！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -1818,8 +1818,8 @@
   "StoreCode":"#BStoreCode#",
   "PosCode":"#BPosCode#",
   "CommunicationPassword":"123456",
-  "MachineMac":"#BMachineMac#",
-  "MachineName":"#BMachineName#",
+  "MachineMac":"#MachineMac#",
+  "MachineName":"#MachineName#",
   "Platform":2
 }</t>
         </is>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"该POS已被绑定，请先解绑！","Details":"UserFriendlyException: 该POS已被绑定，请先解绑！\r\nSTACK TRACE:    at GraspSaas.Grasp.Auth.AuthAppService.Bind(BindInput input) in E:\\Worked\\@GraspShop\\GraspPosShop.Api\\src\\GraspSaas.PosApi.Application\\Grasp\\Auth\\AuthAppService.cs:line 115\r\n   at lambda_method(Closure , Object )\r\n   at Microsoft.AspNetCore.Mvc.Internal.ActionMethodExecutor.AwaitableObjectResultExecutor.Execute(IActionResultTypeMapper mapper, ObjectMethodExecutor executor, Object controller, Object[] arguments)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeActionMethodAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"该POS已被绑定，请先解绑！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454035977404416,"Sort":644454035977404416,"PId":0,"Code":"1","Name":"零食","PyCode":"ls"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454035977404416,"Sort":644454035977404416,"PId":0,"Code":"1","Name":"零食","PyCode":"ls"},{"Id":644776584967880704,"Sort":644776584967880704,"PId":0,"Code":"2","Name":"水果","PyCode":"sg"},{"Id":644776825540575232,"Sort":644776825540575232,"PId":644776584967880704,"Code":"22","Name":"春天水果","PyCode":"ctsg"},{"Id":644776932365303808,"Sort":644776932365303808,"PId":644776584967880704,"Code":"23","Name":"夏天水果","PyCode":"xtsg"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454035977404416,"Sort":644454035977404416,"PId":0,"Code":"1","Name":"零食","PyCode":"ls"},{"Id":644776584967880704,"Sort":644776584967880704,"PId":0,"Code":"2","Name":"水果","PyCode":"sg"},{"Id":644776825540575232,"Sort":644776825540575232,"PId":644776584967880704,"Code":"22","Name":"春天水果","PyCode":"ctsg"},{"Id":644776932365303808,"Sort":644776932365303808,"PId":644776584967880704,"Code":"23","Name":"夏天水果","PyCode":"xtsg"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454035977404416,"Sort":644454035977404416,"PId":0,"Code":"1","Name":"零食","PyCode":"ls"},{"Id":644776584967880704,"Sort":644776584967880704,"PId":0,"Code":"2","Name":"水果","PyCode":"sg"},{"Id":644776825540575232,"Sort":644776825540575232,"PId":644776584967880704,"Code":"22","Name":"春天水果","PyCode":"ctsg"},{"Id":644776932365303808,"Sort":644776932365303808,"PId":644776584967880704,"Code":"23","Name":"夏天水果","PyCode":"xtsg"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454035977404416,"Sort":644454035977404416,"PId":0,"Code":"1","Name":"零食","PyCode":"ls"},{"Id":644776584967880704,"Sort":644776584967880704,"PId":0,"Code":"2","Name":"水果","PyCode":"sg"},{"Id":644776825540575232,"Sort":644776825540575232,"PId":644776584967880704,"Code":"22","Name":"春天水果","PyCode":"ctsg"},{"Id":644776932365303808,"Sort":644776932365303808,"PId":644776584967880704,"Code":"23","Name":"夏天水果","PyCode":"xtsg"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454219704696832,"Sort":644454219704696832,"ProductCategoryId":644454035977404416,"Code":"012","Name":"薯片","PyCode":"sp","Spec":"袋","PricingMode":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219704696832,"Sort":644454219704696832,"ProductCategoryId":644454035977404416,"Code":"012","Name":"薯片","PyCode":"sp","Spec":"袋","PricingMode":1},{"Id":644830785353809920,"Sort":644830785353809920,"ProductCategoryId":644454035977404416,"Code":"6926032345039","Name":"台风天","PyCode":null,"Spec":"刚刚","PricingMode":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219704696832,"Sort":644454219704696832,"ProductCategoryId":644454035977404416,"Code":"012","Name":"薯片","PyCode":"sp","Spec":"袋","PricingMode":1},{"Id":644830785353809920,"Sort":644830785353809920,"ProductCategoryId":644454035977404416,"Code":"6926032345039","Name":"台风天","PyCode":null,"Spec":"刚刚","PricingMode":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219704696832,"Sort":644454219704696832,"ProductCategoryId":644454035977404416,"Code":"012","Name":"薯片","PyCode":"sp","Spec":"袋","PricingMode":1},{"Id":644830785353809920,"Sort":644830785353809920,"ProductCategoryId":644454035977404416,"Code":"6926032345039","Name":"台风天","PyCode":null,"Spec":"刚刚","PricingMode":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219704696832,"Sort":644454219704696832,"ProductCategoryId":644454035977404416,"Code":"012","Name":"薯片","PyCode":"sp","Spec":"袋","PricingMode":1},{"Id":644830785353809920,"Sort":644830785353809920,"ProductCategoryId":644454035977404416,"Code":"6926032345039","Name":"台风天","PyCode":null,"Spec":"刚刚","PricingMode":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454219750834176,"ProductId":644454219704696832,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":5.0000000000,"MemberPrice":4.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProductId":644454219704696832,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":5.0000000000,"MemberPrice":4.0000000000},{"Id":644830785353809921,"ProductId":644830785353809920,"StandardName":"对对对","StandardRelation":0.0000000000,"RetailPrice":14.0000000000,"MemberPrice":25.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProductId":644454219704696832,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":5.0000000000,"MemberPrice":4.0000000000},{"Id":644830785353809921,"ProductId":644830785353809920,"StandardName":"对对对","StandardRelation":0.0000000000,"RetailPrice":14.0000000000,"MemberPrice":25.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProductId":644454219704696832,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":5.0000000000,"MemberPrice":4.0000000000},{"Id":644830785353809921,"ProductId":644830785353809920,"StandardName":"对对对","StandardRelation":0.0000000000,"RetailPrice":14.0000000000,"MemberPrice":25.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProductId":644454219704696832,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":5.0000000000,"MemberPrice":4.0000000000},{"Id":644830785353809921,"ProductId":644830785353809920,"StandardName":"对对对","StandardRelation":0.0000000000,"RetailPrice":14.0000000000,"MemberPrice":25.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454219776000000,"BaseProductStandardId":644454219750834176,"BarCode":"11111111"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219776000000,"BaseProductStandardId":644454219750834176,"BarCode":"11111111"},{"Id":644830785353809922,"BaseProductStandardId":644830785353809921,"BarCode":"6926032345039"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219776000000,"BaseProductStandardId":644454219750834176,"BarCode":"11111111"},{"Id":644830785353809922,"BaseProductStandardId":644830785353809921,"BarCode":"6926032345039"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="I37" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="I38" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219776000000,"BaseProductStandardId":644454219750834176,"BarCode":"11111111"},{"Id":644830785353809922,"BaseProductStandardId":644830785353809921,"BarCode":"6926032345039"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219776000000,"BaseProductStandardId":644454219750834176,"BarCode":"11111111"},{"Id":644830785353809922,"BaseProductStandardId":644830785353809921,"BarCode":"6926032345039"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":641895076527603712,"Sort":641895076527603712,"Code":"YH001","Name":"抹零","PyCode":"ML","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603713,"Sort":641895076527603713,"Code":"YH002","Name":"优惠","PyCode":"YH","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603714,"Sort":641895076527603714,"Code":"YH003","Name":"赠送","PyCode":"ZS","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603715,"Sort":641895076527603715,"Code":"YH004","Name":"优惠券","PyCode":"YHQ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603716,"Sort":641895076527603716,"Code":"YH005","Name":"免单","PyCode":"MD","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603717,"Sort":641895076527603717,"Code":"00001","Name":"人民币","PyCode":"RMB","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603718,"Sort":641895076527603718,"Code":"00002","Name":"任我行支付","PyCode":"RWXZF","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603719,"Sort":641895076527603719,"Code":"00003","Name":"会员卡储值","PyCode":"HYKCZ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644102593789820928,"Sort":644102593789820928,"Code":"YH001","Name":"抹零","PyCode":"ML","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820929,"Sort":644102593789820929,"Code":"YH002","Name":"优惠","PyCode":"YH","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820930,"Sort":644102593789820930,"Code":"YH003","Name":"赠送","PyCode":"ZS","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820931,"Sort":644102593789820931,"Code":"YH004","Name":"优惠券","PyCode":"YHQ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820932,"Sort":644102593789820932,"Code":"YH005","Name":"免单","PyCode":"MD","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820933,"Sort":644102593789820933,"Code":"00001","Name":"人民币","PyCode":"RMB","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820934,"Sort":644102593789820934,"Code":"00002","Name":"任我行支付","PyCode":"RWXZF","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820935,"Sort":644102593789820935,"Code":"00003","Name":"会员卡储值","PyCode":"HYKCZ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":641895076527603712,"Sort":641895076527603712,"Code":"YH001","Name":"抹零","PyCode":"ML","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603713,"Sort":641895076527603713,"Code":"YH002","Name":"优惠","PyCode":"YH","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603714,"Sort":641895076527603714,"Code":"YH003","Name":"赠送","PyCode":"ZS","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603715,"Sort":641895076527603715,"Code":"YH004","Name":"优惠券","PyCode":"YHQ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603716,"Sort":641895076527603716,"Code":"YH005","Name":"免单","PyCode":"MD","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603717,"Sort":641895076527603717,"Code":"00001","Name":"人民币","PyCode":"RMB","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603718,"Sort":641895076527603718,"Code":"00002","Name":"任我行支付","PyCode":"RWXZF","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603719,"Sort":641895076527603719,"Code":"00003","Name":"会员卡储值","PyCode":"HYKCZ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644102593789820928,"Sort":644102593789820928,"Code":"YH001","Name":"抹零","PyCode":"ML","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820929,"Sort":644102593789820929,"Code":"YH002","Name":"优惠","PyCode":"YH","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820930,"Sort":644102593789820930,"Code":"YH003","Name":"赠送","PyCode":"ZS","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820931,"Sort":644102593789820931,"Code":"YH004","Name":"优惠券","PyCode":"YHQ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820932,"Sort":644102593789820932,"Code":"YH005","Name":"免单","PyCode":"MD","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820933,"Sort":644102593789820933,"Code":"00001","Name":"人民币","PyCode":"RMB","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820934,"Sort":644102593789820934,"Code":"00002","Name":"任我行支付","PyCode":"RWXZF","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820935,"Sort":644102593789820935,"Code":"00003","Name":"会员卡储值","PyCode":"HYKCZ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":641895076527603712,"Sort":641895076527603712,"Code":"YH001","Name":"抹零","PyCode":"ML","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603713,"Sort":641895076527603713,"Code":"YH002","Name":"优惠","PyCode":"YH","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603714,"Sort":641895076527603714,"Code":"YH003","Name":"赠送","PyCode":"ZS","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603715,"Sort":641895076527603715,"Code":"YH004","Name":"优惠券","PyCode":"YHQ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603716,"Sort":641895076527603716,"Code":"YH005","Name":"免单","PyCode":"MD","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603717,"Sort":641895076527603717,"Code":"00001","Name":"人民币","PyCode":"RMB","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603718,"Sort":641895076527603718,"Code":"00002","Name":"任我行支付","PyCode":"RWXZF","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":641895076527603719,"Sort":641895076527603719,"Code":"00003","Name":"会员卡储值","PyCode":"HYKCZ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644102593789820928,"Sort":644102593789820928,"Code":"YH001","Name":"抹零","PyCode":"ML","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820929,"Sort":644102593789820929,"Code":"YH002","Name":"优惠","PyCode":"YH","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820930,"Sort":644102593789820930,"Code":"YH003","Name":"赠送","PyCode":"ZS","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820931,"Sort":644102593789820931,"Code":"YH004","Name":"优惠券","PyCode":"YHQ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820932,"Sort":644102593789820932,"Code":"YH005","Name":"免单","PyCode":"MD","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":1,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820933,"Sort":644102593789820933,"Code":"00001","Name":"人民币","PyCode":"RMB","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820934,"Sort":644102593789820934,"Code":"00002","Name":"任我行支付","PyCode":"RWXZF","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null},{"Id":644102593789820935,"Sort":644102593789820935,"Code":"00003","Name":"会员卡储值","PyCode":"HYKCZ","Remark":null,"IsOpenMoneyBox":false,"PaymentWayType":2,"IsPreset":true,"ShortcutKey":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":2,"UserName":"ly","PosClientSalt":"c93d8aa6-94d1-4a51-8bbc-cd6445c06a2c","PosClientPassword":"960E508EBB1E434C364FC0F52C197A36DB9833FA","Permission":null},{"Id":1,"UserName":"admin","PosClientSalt":"e0a5e886-1c59-4dc5-8497-50364c0929dc","PosClientPassword":"ABDAA6222B7D76A67D22883A9952C15BDCA817C3","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":1,"UserName":"admin","PosClientSalt":"fadf4e02-1c7c-49dd-bef0-9f0a201e7222","PosClientPassword":"3E337B184C41365203FC721F1C8E0C113A0BB37E","Permission":null},{"Id":2,"UserName":"ly","PosClientSalt":"501b1f00-2939-4e8a-b671-a5482df4805a","PosClientPassword":"E4680A1D7E43785850FC678D5286158F57972472","Permission":null},{"Id":3,"UserName":"zh","PosClientSalt":"655111a0-86bc-4e12-994b-8c9aa72d6687","PosClientPassword":"B91BA1FC0BA8ED717D35E6AEA290C80B29E31E59","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":2,"UserName":"ly","PosClientSalt":"c93d8aa6-94d1-4a51-8bbc-cd6445c06a2c","PosClientPassword":"960E508EBB1E434C364FC0F52C197A36DB9833FA","Permission":null},{"Id":1,"UserName":"admin","PosClientSalt":"e0a5e886-1c59-4dc5-8497-50364c0929dc","PosClientPassword":"ABDAA6222B7D76A67D22883A9952C15BDCA817C3","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":1,"UserName":"admin","PosClientSalt":"fadf4e02-1c7c-49dd-bef0-9f0a201e7222","PosClientPassword":"3E337B184C41365203FC721F1C8E0C113A0BB37E","Permission":null},{"Id":2,"UserName":"ly","PosClientSalt":"501b1f00-2939-4e8a-b671-a5482df4805a","PosClientPassword":"E4680A1D7E43785850FC678D5286158F57972472","Permission":null},{"Id":3,"UserName":"zh","PosClientSalt":"655111a0-86bc-4e12-994b-8c9aa72d6687","PosClientPassword":"B91BA1FC0BA8ED717D35E6AEA290C80B29E31E59","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":2,"UserName":"ly","PosClientSalt":"c93d8aa6-94d1-4a51-8bbc-cd6445c06a2c","PosClientPassword":"960E508EBB1E434C364FC0F52C197A36DB9833FA","Permission":null},{"Id":1,"UserName":"admin","PosClientSalt":"e0a5e886-1c59-4dc5-8497-50364c0929dc","PosClientPassword":"ABDAA6222B7D76A67D22883A9952C15BDCA817C3","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":1,"UserName":"admin","PosClientSalt":"fadf4e02-1c7c-49dd-bef0-9f0a201e7222","PosClientPassword":"3E337B184C41365203FC721F1C8E0C113A0BB37E","Permission":null},{"Id":2,"UserName":"ly","PosClientSalt":"501b1f00-2939-4e8a-b671-a5482df4805a","PosClientPassword":"E4680A1D7E43785850FC678D5286158F57972472","Permission":null},{"Id":3,"UserName":"zh","PosClientSalt":"655111a0-86bc-4e12-994b-8c9aa72d6687","PosClientPassword":"B91BA1FC0BA8ED717D35E6AEA290C80B29E31E59","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":645831547324203008},{"Id":645863476639563776},{"Id":645871153105076224},{"Id":645874716862578688},{"Id":645876439333208064},{"Id":645877294501462016},{"Id":645909173506146304},{"Id":645917931175149568},{"Id":645918550506078208},{"Id":646162047800705024},{"Id":646163091762970624}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I70" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644103530449207296,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296},{"Id":644103624401616896,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103624401616896},{"Id":645819939076177920,"ProjectId":645819938946154496,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645831547403894784,"ProjectId":645831547324203008,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645863476673118208,"ProjectId":645863476639563776,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645877294514044928,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645877294514044929,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400},{"Id":645909173569060864,"ProjectId":645909173506146304,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645909173594226688,"ProjectId":645909173506146304,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":645917931200315392,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645917931200315393,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J70" s="0" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644103530449207296,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296},{"Id":644103624401616896,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103624401616896},{"Id":645819939076177920,"ProjectId":645819938946154496,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645831547403894784,"ProjectId":645831547324203008,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645863476673118208,"ProjectId":645863476639563776,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645877294514044928,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645877294514044929,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400},{"Id":645909173569060864,"ProjectId":645909173506146304,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645909173594226688,"ProjectId":645909173506146304,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":645917931200315392,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645917931200315393,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="I73" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J73" s="0" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="I74" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644103530449207296,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296},{"Id":644103624401616896,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103624401616896},{"Id":645819939076177920,"ProjectId":645819938946154496,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645831547403894784,"ProjectId":645831547324203008,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645863476673118208,"ProjectId":645863476639563776,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645877294514044928,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645877294514044929,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400},{"Id":645909173569060864,"ProjectId":645909173506146304,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645909173594226688,"ProjectId":645909173506146304,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":645917931200315392,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645917931200315393,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J74" s="0" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="I75" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644103530449207296,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296},{"Id":644103624401616896,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103624401616896},{"Id":645819939076177920,"ProjectId":645819938946154496,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645831547403894784,"ProjectId":645831547324203008,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645863476673118208,"ProjectId":645863476639563776,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645877294514044928,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645877294514044929,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400},{"Id":645909173569060864,"ProjectId":645909173506146304,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645909173594226688,"ProjectId":645909173506146304,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":645917931200315392,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645917931200315393,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J75" s="0" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="I78" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J78" s="0" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="I79" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - The MachineMac field is required.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The MachineMac field is required.\r\n","ValidationErrors":[{"Message":"The MachineMac field is required.","Members":["machineMac"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J79" s="0" t="inlineStr">
@@ -4877,7 +4877,7 @@
       <c r="I83" s="0" t="inlineStr"/>
       <c r="J83" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
       <c r="I84" s="0" t="inlineStr"/>
       <c r="J84" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
       <c r="I85" s="0" t="inlineStr"/>
       <c r="J85" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5000,7 @@
       <c r="I86" s="0" t="inlineStr"/>
       <c r="J86" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       <c r="I87" s="0" t="inlineStr"/>
       <c r="J87" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I88" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProjectId":0,"ProductStandardId":644454219750834176,"ProjectPrice":10.0000000000},{"Id":644830785353809921,"ProjectId":0,"ProductStandardId":644830785353809921,"ProjectPrice":10.0000000000},{"Id":645819938950348800,"ProjectId":645819938946154496,"ProductStandardId":644454219750834176,"ProjectPrice":5.0000000000},{"Id":645831547349368832,"ProjectId":645831547324203008,"ProductStandardId":644454219750834176,"ProjectPrice":5.0000000000},{"Id":645863476652146688,"ProjectId":645863476639563776,"ProductStandardId":644830785353809921,"ProjectPrice":12.0000000000},{"Id":645863476656340992,"ProjectId":645863476639563776,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645871153105076225,"ProjectId":645871153105076224,"ProductStandardId":644830785353809921,"ProjectPrice":10.0000000000},{"Id":645871153105076226,"ProjectId":645871153105076224,"ProductStandardId":644454219750834176,"ProjectPrice":10.0000000000},{"Id":645874716862578689,"ProjectId":645874716862578688,"ProductStandardId":644830785353809921,"ProjectPrice":12.0000000000},{"Id":645874716862578690,"ProjectId":645874716862578688,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645876439333208065,"ProjectId":645876439333208064,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645876439333208066,"ProjectId":645876439333208064,"ProductStandardId":644830785353809921,"ProjectPrice":3.0000000000},{"Id":645877294505656320,"ProjectId":645877294501462016,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645877294505656321,"ProjectId":645877294501462016,"ProductStandardId":644830785353809921,"ProjectPrice":3.0000000000},{"Id":645909173522923520,"ProjectId":645909173506146304,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":645909173527117824,"ProjectId":645909173506146304,"ProductStandardId":644454219750834176,"ProjectPrice":2.0000000000},{"Id":645917931183538176,"ProjectId":645917931175149568,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":645918550506078209,"ProjectId":645918550506078208,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":646162047830065152,"ProjectId":646162047800705024,"ProductStandardId":644454219750834176,"ProjectPrice":2.0000000000},{"Id":646163091783942144,"ProjectId":646163091762970624,"ProductStandardId":644454219750834176,"ProjectPrice":1.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J88" s="0" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="I94" s="0" t="inlineStr">
         <is>
-          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiI5MmYzYWUwZi0xYzIwLTQ2MmEtODI3My1iMzEyNWY4MmI4MmMiLCJpYXQiOjE1NzM3ODg4NTksIkp3dENsaWVudFVuaXF1ZUlkIjoiOGY2YjAxYWMtMDhkMy00ODkxLTlmZDUtMTQ2ZGNjYzNmMTljIiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NDc0MTg4OTU2MzU1Nzg4OCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ0NzQxODk3NTAzMzc1MzYwIiwibmJmIjoxNTczNzg4ODU5LCJleHAiOjE1NzM4NzUyNTksImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.g3Y7yeqpFQd63ZJbp7_rhMA_HeFQxc4sceKwY6k7Dd4","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiI2NWNmNGMxMy0xNDMzLTRlNGMtYjkwMi05YzhjMWYwMGRhYmYiLCJpYXQiOjE1NzQxMzA1NDIsIkp3dENsaWVudFVuaXF1ZUlkIjoiMzhhYWI4ZTYtMDZmZC00ZTc4LWIxNmQtMjZhNjNmMGJiOTYzIiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NjE3NDczMzk3NjQ2OTUwNCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ2MTc0NzQwNjAzNDY5ODI0IiwibmJmIjoxNTc0MTMwNTQyLCJleHAiOjE1NzQyMTY5NDIsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.2F02QkzDDKjaRV6irR2fgyRgvAnoYytwbJUZdsi0NQg","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J94" s="0" t="inlineStr">
@@ -5383,6 +5383,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"登录失败，请查看登录信息是否正确！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="96" s="2">
       <c r="A96" s="1" t="n">
@@ -5422,6 +5432,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I96" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"登录失败，请查看登录信息是否正确！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="97" s="2">
       <c r="A97" s="1" t="n">
@@ -5461,6 +5481,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Your request is not valid!","Details":"The following errors were detected during validation.\r\n - The Password field is required.\r\n - The UserName field is required.\r\n","ValidationErrors":[{"Message":"The Password field is required.","Members":["password"]},{"Message":"The UserName field is required.","Members":["userName"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17" r="98" s="2">
       <c r="A98" s="1" t="n">
@@ -5500,6 +5530,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Your request is not valid!","Details":"The following errors were detected during validation.\r\n - Error parsing NaN value. Path 'UserName', line 3, position 15.\r\n - Unexpected character encountered while parsing value: o. Path 'UserName', line 3, position 15.\r\n","ValidationErrors":[{"Message":"Error parsing NaN value. Path 'UserName', line 3, position 15.","Members":["userName"]},{"Message":"Unexpected character encountered while parsing value: o. Path 'UserName', line 3, position 15.","Members":["userName"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="16" r="99" s="2">
       <c r="A99" s="1" t="n">
@@ -5537,6 +5577,16 @@
       <c r="H99" s="1" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"登录失败，请查看登录信息是否正确！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -5557,10 +5607,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5658,7 +5708,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":643280681631219712,"Code":"002","Name":"王夜测试2","PyCode":"wycs2","ConsumeMode":1,"ValidateMode":1,"StoreLimitMode":1},{"Id":643294730242752512,"Code":"9999","Name":"9999","PyCode":"9999","ConsumeMode":3,"ValidateMode":1,"StoreLimitMode":1},{"Id":643346461488054272,"Code":"ly01","Name":"ly专用","PyCode":"lyzy","ConsumeMode":3,"ValidateMode":1,"StoreLimitMode":3},{"Id":643367291760672768,"Code":"009","Name":"王夜测试04","PyCode":"wycs04","ConsumeMode":1,"ValidateMode":2,"StoreLimitMode":2},{"Id":643367476209385472,"Code":"006","Name":"王夜测试05","PyCode":"wycs05","ConsumeMode":3,"ValidateMode":2,"StoreLimitMode":2},{"Id":643381545263955968,"Code":"0010","Name":"测试店铺","PyCode":"csdp","ConsumeMode":2,"ValidateMode":2,"StoreLimitMode":2}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644103412081754112,"Code":"0002","Name":"铂金VIP","PyCode":"bjVIP","ConsumeMode":3,"ValidateMode":2,"StoreLimitMode":2},{"Id":645814470253215744,"Code":"BG01","Name":"普通卡","PyCode":"ptk","ConsumeMode":1,"ValidateMode":1,"StoreLimitMode":1},{"Id":646168330255728640,"Code":"HYKLX02","Name":"黄金卡","PyCode":"hjk","ConsumeMode":3,"ValidateMode":2,"StoreLimitMode":2}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
@@ -5698,7 +5748,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644103530449207296,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"黄金等级555555555555544114422444444455555555555555553333333333333333","UpgradeTotal":200000000000.0000000000,"PointPerOneMoney":10.0000000000,"DiscountPercent":80.0000000000,"IsMemberPrice":true},{"Id":644103624401616896,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"黄金等级4","UpgradeTotal":50.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":80.0000000000,"IsMemberPrice":true},{"Id":644103717229953024,"MemberCardTypeId":644103412081754112,"RowIndex":0,"LevelName":"铂金等级5","UpgradeTotal":60.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":80.0000000000,"IsMemberPrice":false},{"Id":644103796581990400,"MemberCardTypeId":644103412081754112,"RowIndex":0,"LevelName":"铂金等级4","UpgradeTotal":80.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":80.0000000000,"IsMemberPrice":true},{"Id":645817144428199936,"MemberCardTypeId":0,"RowIndex":0,"LevelName":"VIP1","UpgradeTotal":0.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":100.0000000000,"IsMemberPrice":false},{"Id":645820553633988608,"MemberCardTypeId":645814470253215744,"RowIndex":0,"LevelName":"vip1","UpgradeTotal":0.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":100.0000000000,"IsMemberPrice":true},{"Id":645865299836403712,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"1","UpgradeTotal":1.0000000000,"PointPerOneMoney":21.0000000000,"DiscountPercent":1.0000000000,"IsMemberPrice":false},{"Id":645865431067787264,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"2","UpgradeTotal":2.0000000000,"PointPerOneMoney":2.0000000000,"DiscountPercent":2.0000000000,"IsMemberPrice":true},{"Id":645865471140167680,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"3","UpgradeTotal":3.0000000000,"PointPerOneMoney":3.0000000000,"DiscountPercent":3.0000000000,"IsMemberPrice":false},{"Id":645865527016685568,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"4","UpgradeTotal":4.0000000000,"PointPerOneMoney":4.0000000000,"DiscountPercent":4.0000000000,"IsMemberPrice":false},{"Id":645865579982356480,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"5","UpgradeTotal":5.0000000000,"PointPerOneMoney":5.0000000000,"DiscountPercent":5.0000000000,"IsMemberPrice":false},{"Id":645865618213437440,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"6","UpgradeTotal":6.0000000000,"PointPerOneMoney":6.0000000000,"DiscountPercent":6.0000000000,"IsMemberPrice":false},{"Id":645865669442666496,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"7","UpgradeTotal":7.0000000000,"PointPerOneMoney":7.0000000000,"DiscountPercent":7.0000000000,"IsMemberPrice":false},{"Id":645865733913313280,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"8","UpgradeTotal":8.0000000000,"PointPerOneMoney":8.0000000000,"DiscountPercent":8.0000000000,"IsMemberPrice":false},{"Id":645865765857132544,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"9","UpgradeTotal":9.0000000000,"PointPerOneMoney":9.0000000000,"DiscountPercent":9.0000000000,"IsMemberPrice":false},{"Id":645865810480332800,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"10","UpgradeTotal":10.0000000000,"PointPerOneMoney":10.0000000000,"DiscountPercent":10.0000000000,"IsMemberPrice":false},{"Id":645924895393316864,"MemberCardTypeId":644103412081754112,"RowIndex":0,"LevelName":"VIP3","UpgradeTotal":100.0000000000,"PointPerOneMoney":10.0000000000,"DiscountPercent":50.0000000000,"IsMemberPrice":false},{"Id":646184436060127232,"MemberCardTypeId":646168330255728640,"RowIndex":0,"LevelName":"VIP1","UpgradeTotal":0.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":100.0000000000,"IsMemberPrice":true},{"Id":646184539147730944,"MemberCardTypeId":646168330255728640,"RowIndex":0,"LevelName":"VIP2","UpgradeTotal":100.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":90.0000000000,"IsMemberPrice":false},{"Id":646184769868005376,"MemberCardTypeId":646168330255728640,"RowIndex":0,"LevelName":"VIP3","UpgradeTotal":200.0000000000,"PointPerOneMoney":1.0000000000,"DiscountPercent":80.0000000000,"IsMemberPrice":false}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -5752,7 +5802,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Method arguments are not valid! See ValidationErrors for details.","Details":"AbpValidationException: Method arguments are not valid! See ValidationErrors for details.\r\nThe following errors were detected during validation.\r\n - Error converting value \"\" to type 'System.Int64'. Path 'Id', line 2, position 10.\r\n - Error converting value \"\" to type 'System.Int64'. Path 'MemberUser.Id', line 13, position 12.\r\n\r\nSTACK TRACE:    at Abp.Runtime.Validation.Interception.MethodInvocationValidator.ThrowValidationError()\r\n   at Abp.Runtime.Validation.Interception.MethodInvocationValidator.Validate()\r\n   at Abp.AspNetCore.Mvc.Validation.AbpValidationActionFilter.OnActionExecutionAsync(ActionExecutingContext context, ActionExecutionDelegate next)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeNextActionFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Rethrow(ActionExecutedContext context)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.Next(State&amp; next, Scope&amp; scope, Object&amp; state, Boolean&amp; isCompleted)\r\n   at Microsoft.AspNetCore.Mvc.Internal.ControllerActionInvoker.InvokeInnerFilterAsync()\r\n   at Microsoft.AspNetCore.Mvc.Internal.ResourceInvoker.InvokeNextExceptionFilterAsync()\r\n","ValidationErrors":[{"Message":"Error converting value \"\" to type 'System.Int64'. Path 'Id', line 2, position 10.","Members":["id"]},{"Message":"Error converting value \"\" to type 'System.Int64'. Path 'MemberUser.Id', line 13, position 12.","Members":["memberUser.Id"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -5804,8 +5854,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
-      <c r="I5" s="0" t="n"/>
-      <c r="J5" s="0" t="n"/>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"An internal error occurred during your request!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="27" r="6" s="2">
       <c r="A6" s="1" t="n">
@@ -5850,8 +5908,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
-      <c r="I6" s="0" t="n"/>
-      <c r="J6" s="0" t="n"/>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Your request is not valid!","Details":"The following errors were detected during validation.\r\n - The PersonPhone field is required.\r\n","ValidationErrors":[{"Message":"The PersonPhone field is required.","Members":["personPhone"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="27" r="7" s="2">
       <c r="A7" s="1" t="n">
@@ -5896,8 +5962,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
-      <c r="I7" s="0" t="n"/>
-      <c r="J7" s="0" t="n"/>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"An internal error occurred during your request!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="21" r="8" s="2">
       <c r="A8" s="1" t="n">
@@ -5933,6 +6007,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="21" r="9" s="2">
       <c r="A9" s="1" t="n">
@@ -5963,7 +6047,21 @@
           <t>{"Keyword":"00"}</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n"/>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="2">
       <c r="A10" s="1" t="n">
@@ -6099,7 +6197,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>手机号和注册手机号一致，修改手机号</t>
+          <t>新手机号和原手机号一致，修改手机号</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -6646,7 +6744,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="28" s="2">
+    <row customHeight="1" ht="54" r="28" s="2">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -6657,20 +6755,57 @@
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
+          <t>http://serverAddress/api/services/app/Member/ResetCardPassword</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>重置密码</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>{
+  "MemberUserId": "#MemberUserId#"
+}</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="29" s="2">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
           <t>http://serverAddress/api/services/app/Member/MemberDeposit</t>
         </is>
       </c>
-      <c r="D28" s="0" t="inlineStr">
+      <c r="D29" s="0" t="inlineStr">
         <is>
           <t>会员储值</t>
         </is>
       </c>
-      <c r="E28" s="0" t="inlineStr">
+      <c r="E29" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6679,37 +6814,37 @@
 }</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="H29" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="29" s="2">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
+    <row customHeight="1" ht="67.5" r="30" s="2">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C29" s="0" t="inlineStr">
+      <c r="C30" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/MemberDeposit</t>
         </is>
       </c>
-      <c r="D29" s="0" t="inlineStr">
+      <c r="D30" s="0" t="inlineStr">
         <is>
           <t>错误的数据类型，会员储值</t>
         </is>
       </c>
-      <c r="E29" s="0" t="inlineStr">
+      <c r="E30" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6718,37 +6853,37 @@
 }</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
+      <c r="H30" s="0" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="30" s="2">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
+    <row customHeight="1" ht="67.5" r="31" s="2">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C30" s="0" t="inlineStr">
+      <c r="C31" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/ModifyCardTypeAndLevel</t>
         </is>
       </c>
-      <c r="D30" s="0" t="inlineStr">
+      <c r="D31" s="0" t="inlineStr">
         <is>
           <t>会员卡级别调整</t>
         </is>
       </c>
-      <c r="E30" s="0" t="inlineStr">
+      <c r="E31" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6757,37 +6892,37 @@
 }</t>
         </is>
       </c>
-      <c r="H30" s="0" t="inlineStr">
+      <c r="H31" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="31" s="2">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
+    <row customHeight="1" ht="54" r="32" s="2">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C31" s="0" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/ModifyPoint</t>
         </is>
       </c>
-      <c r="D31" s="0" t="inlineStr">
+      <c r="D32" s="0" t="inlineStr">
         <is>
           <t>会员卡积分调整</t>
         </is>
       </c>
-      <c r="E31" s="0" t="inlineStr">
+      <c r="E32" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6795,37 +6930,37 @@
 }</t>
         </is>
       </c>
-      <c r="H31" s="0" t="inlineStr">
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="32" s="2">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
+    <row customHeight="1" ht="67.5" r="33" s="2">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C32" s="0" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/ModifyMoneyAndGivenMoney</t>
         </is>
       </c>
-      <c r="D32" s="0" t="inlineStr">
+      <c r="D33" s="0" t="inlineStr">
         <is>
           <t>会员卡储值调整</t>
         </is>
       </c>
-      <c r="E32" s="0" t="inlineStr">
+      <c r="E33" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6834,37 +6969,37 @@
 }</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
+      <c r="H33" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="33" s="2">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
+    <row customHeight="1" ht="54" r="34" s="2">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C33" s="0" t="inlineStr">
+      <c r="C34" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/MemberPay</t>
         </is>
       </c>
-      <c r="D33" s="0" t="inlineStr">
+      <c r="D34" s="0" t="inlineStr">
         <is>
           <t>会员支付0元</t>
         </is>
       </c>
-      <c r="E33" s="0" t="inlineStr">
+      <c r="E34" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6872,74 +7007,74 @@
 }</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="34" s="2">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
+    <row customHeight="1" ht="40.5" r="35" s="2">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C34" s="0" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/MemberPayRefund</t>
         </is>
       </c>
-      <c r="D34" s="0" t="inlineStr">
+      <c r="D35" s="0" t="inlineStr">
         <is>
           <t>会员支付0元，退款</t>
         </is>
       </c>
-      <c r="E34" s="0" t="inlineStr">
+      <c r="E35" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberPayId": "#MemberPayId#"
 }</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
+      <c r="H35" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="35" s="2">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
+    <row customHeight="1" ht="54" r="36" s="2">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C35" s="0" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/MemberPay</t>
         </is>
       </c>
-      <c r="D35" s="0" t="inlineStr">
+      <c r="D36" s="0" t="inlineStr">
         <is>
           <t>会员支付金额大于会员卡储值余额</t>
         </is>
       </c>
-      <c r="E35" s="0" t="inlineStr">
+      <c r="E36" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6947,37 +7082,37 @@
 }</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
+      <c r="H36" s="0" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="36" s="2">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="inlineStr">
+    <row customHeight="1" ht="54" r="37" s="2">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C36" s="0" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/MemberPay</t>
         </is>
       </c>
-      <c r="D36" s="0" t="inlineStr">
+      <c r="D37" s="0" t="inlineStr">
         <is>
           <t>0&lt;支付金额&lt;会员卡储值余额</t>
         </is>
       </c>
-      <c r="E36" s="0" t="inlineStr">
+      <c r="E37" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberUserId": "#MemberUserId#",
@@ -6985,44 +7120,159 @@
 }</t>
         </is>
       </c>
-      <c r="H36" s="0" t="inlineStr">
+      <c r="H37" s="0" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="37" s="2">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="inlineStr">
+    <row customHeight="1" ht="40.5" r="38" s="2">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="C37" s="0" t="inlineStr">
+      <c r="C38" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Member/MemberPayRefund</t>
         </is>
       </c>
-      <c r="D37" s="0" t="inlineStr">
+      <c r="D38" s="0" t="inlineStr">
         <is>
           <t>会员支付大于0元，退款</t>
         </is>
       </c>
-      <c r="E37" s="0" t="inlineStr">
+      <c r="E38" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>{
   "MemberPayId": "#MemberPayId#"
 }</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="39" s="2">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/services/app/Member/MemberPay</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>会员支付</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>{
+  "MemberUserId": "#MemberUserId#",
+  "Amount": 5
+}</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.5" r="40" s="2">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/services/app/Member/MemberPayRefundBatch</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>会员支付批量退款</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "MemberPayId": "#MemberPayId#"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="41" s="2">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/services/app/Member/ModifyCardNumber</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>修改卡号</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>{
+  "MemberPersonId": "#MemberPersonId#",
+  "CardNumber": "1119"
+}</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
@@ -7042,7 +7292,7 @@
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25497,14 +25747,24 @@
       <c r="J24" s="0" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="25" s="2">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BaseProduct</t>
+        </is>
+      </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/BaseProduct/CreateBaseProduct</t>
         </is>
       </c>
-      <c r="D25" s="0" t="inlineStr"/>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>错误的条形码，创建商品</t>
+        </is>
+      </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
           <t>post</t>
@@ -25537,7 +25797,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="26" s="2">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
@@ -25572,7 +25832,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="27" s="2">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
@@ -25607,7 +25867,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="28" s="2">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
@@ -25642,7 +25902,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="29" s="2">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
@@ -25689,7 +25949,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -25865,7 +26125,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -25883,7 +26143,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>15000000001</v>
+        <v>15000000002</v>
       </c>
     </row>
   </sheetData>

--- a/kx_api/test_cases/api_case.xlsx
+++ b/kx_api/test_cases/api_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" state="visible" r:id="rId1"/>
@@ -61,6 +61,22 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -70,7 +86,36 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,6 +132,44 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -101,90 +184,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +211,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +313,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,157 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +403,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -426,17 +437,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,17 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,17 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -504,10 +504,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -516,16 +516,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
@@ -534,115 +534,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="17" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="12" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="10" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="15" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="8" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"accessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjEiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoiYWRtaW4iLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6ImU1MTE5NDNlLWY5OTUtZjk5NS0yMmJmLTM5ZjE3NjM3MWQ3MSIsImh0dHA6Ly9zY2hlbWFzLm1pY3Jvc29mdC5jb20vd3MvMjAwOC8wNi9pZGVudGl0eS9jbGFpbXMvcm9sZSI6IkFkbWluIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjEiLCJqdGkiOiIwYzk1Mjk0Ni1kZTg1LTQxN2UtYjE1Mi1kNmU2ZTU2YmZkOTciLCJpYXQiOjE1NzQxMzA0NjAsIkp3dFdlYlVuaXF1ZUlkIjoiZTU3Y2NmYjEtOTE4YS00OTc0LWExZDgtYzMwOTljODc5M2I4IiwiSnd0V2ViVGVuYW50SWQiOiIxIiwibmJmIjoxNTc0MTMwNDYwLCJleHAiOjE1NzQyMTY4NjAsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.M1wV8iEzHaMNbfPvmRM2XG9OEWic6s7VdY185uHOfY8","encryptedAccessToken":"wNYmO41/48SHNstaLVXxHCCre29BZQl1NhC6NM3R3rzpXtPQxVzH6jEzA/QhXFN5tu6Fk7pO53uppm1mVXMZgxbyRVz26dnepi/FyB6axBY+6gq1GL+uRQgoiFUCjRN2p8w6LevViwKlHyWZZJZO1DGVSjAi1m2U+og9pkHw9/QR4Nl/DPnoP9JYDMpZ1zxx09u6s0GZ9/Q5Sjk+L0UfcSCbl38X8he5w9UIn/Hvxh7ysM1CiPLsoOwtbiieSRVmrmt0JjnipAn4/K283F8GrGwzwgehWsqefmUnM0ckMwP9ZAdwQxWDhxv0IqNw4tDhwUYs/1SYdYozdNzgByhgNOBPzQDObNLlWc4vV5VMOiYHBOMNLV6WmJ4h3l9zRRXmjfn2He226iurtcv029//9vcQ4k+7iEv464BkdzAxdfTKUBj2kJ1gjYDtrLg/qWyRu/9fno69wGq1hJoj60As3lu8n0RUfOXz6E0ZVc53G4obkLrkeXDLSlFSlhRcmETzbW0oio12RjVwvy4O3qUO4Ed8buEQPjpy7bjikSh3Rv7dpDWsFAt4pjnuZU9X/H7hBVYoEkqkliRv3lQWxVzKJuVQUgBS4pW3IitFjSCO3aKkVBVvNoEdfjKgmn7q/dvJPbA6CwqFbzAKhwz4rxSxlo5AqlLhaOofxKiMf+CGXMlqQfUaxlGDqvf8f37sYolSP85ZYK+BVNoy1p7NKdqOoDUgIvZIFVLyPYurNafGb07ucKugK/lRiU1GGdpimcq4gX47eB3Vfr6fIfuXA5IFdemqKg/gWzvSp6X37CGxuTGKWCjSVtdFXPK+PMupIlBOenkCQyolE2t/kA6Hk8LrJs52zQdlIKbhUKhRcFrktjeuwJzMUFW79nsqorVbn712TJ+fqV01KrsoBbtOVL46WhcUJl1zXQr1GODWZwcJ+ciR7TDDZLAm/edx6JAw+pWf3lKU3YA+x0QBefL9udX77vjj5XRbtd8vnN9JEQ/F4ct4MEwIODq1wX5tEpCJsAI+OU437fcOp+9kdQk1HIx9Ws0on3N5+bB3UZMUl283hS74uClQRttPAkHj4i7A73GtxZ4YE8Q5bjXjdAArZ8boc4fIcK+CYC6BTQls7JaXOo4=","expireInSeconds":86400,"userId":1},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"accessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjEiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoiYWRtaW4iLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6ImU1MTE5NDNlLWY5OTUtZjk5NS0yMmJmLTM5ZjE3NjM3MWQ3MSIsImh0dHA6Ly9zY2hlbWFzLm1pY3Jvc29mdC5jb20vd3MvMjAwOC8wNi9pZGVudGl0eS9jbGFpbXMvcm9sZSI6IkFkbWluIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjEiLCJqdGkiOiJkOGRhNjEyMC0xNzVjLTQwNjAtODZhNS1lMjIxODEwM2E3ZTgiLCJpYXQiOjE1NzQyNDQzMzAsIkp3dFdlYlVuaXF1ZUlkIjoiNGMxNTVkM2UtNTc4NC00NjgzLTkzZjktZjc4ZWVmYmE4NjY3IiwiSnd0V2ViVGVuYW50SWQiOiIxIiwibmJmIjoxNTc0MjQ0MzMwLCJleHAiOjE1NzQzMzA3MzAsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.G5asGyZYutl1SXZvD_XH03UMSZgM7g1fHXLFNFZX3pg","encryptedAccessToken":"wNYmO41/48SHNstaLVXxHCCre29BZQl1NhC6NM3R3rzpXtPQxVzH6jEzA/QhXFN5tu6Fk7pO53uppm1mVXMZgxbyRVz26dnepi/FyB6axBY+6gq1GL+uRQgoiFUCjRN2p8w6LevViwKlHyWZZJZO1DGVSjAi1m2U+og9pkHw9/QR4Nl/DPnoP9JYDMpZ1zxx09u6s0GZ9/Q5Sjk+L0UfcSCbl38X8he5w9UIn/Hvxh7ysM1CiPLsoOwtbiieSRVmrmt0JjnipAn4/K283F8GrGwzwgehWsqefmUnM0ckMwP9ZAdwQxWDhxv0IqNw4tDhwUYs/1SYdYozdNzgByhgNOBPzQDObNLlWc4vV5VMOiYHBOMNLV6WmJ4h3l9zRRXmjfn2He226iurtcv029//9vcQ4k+7iEv464BkdzAxdfTKUBj2kJ1gjYDtrLg/qWyRu/9fno69wGq1hJoj60As3lu8n0RUfOXz6E0ZVc53G4obkLrkeXDLSlFSlhRcmETzbW0oio12RjVwvy4O3qUO4Ed8buEQPjpy7bjikSh3Rv7dpDWsFAt4pjnuZU9X/H7hBVYoEkqkliRv3lQWxVzKJuVQUgBS4pW3IitFjSCO3aKkVBVvNoEdfjKgmn7q/dvJPbA6CwqFbzAKhwz4rxSxlo5AqlLhaOofxKiMf+CGXMnLum91GGvOGJ7D7065o/1AujdKhZnf+MrNHO8PRNKGFqlRqB9LKjlojnTnEMc/G3/0HfXK0P7KpOjePrpt1ibZ5B4ZvYw+eKxNoHQalQTfgUFUX2eNfBQRr38oBG4SeKNNNfjHbgzOan1iMyjR2z4W0oGLM5vi7LEdrJ8rJpx5QH5P8sYuwQcauphjQsX+IZHOxUqDmOTVRisyvBLhUTWH6dhIQctSIXc4KVAjYqE4PsXdo9YYSmMrvodqmblxLHa09OwKMnEondoyiU08BQxea4YZwjKnoperoO4UST90seKie9tHvdS/jWlD1lFSgGyYhq7up090q02RwpfaE9syUmC2ZrUQg/yPinrpx10tABJGWzU1fPWW9uJtruCQRdg1cHeUJ/pwDD27szLhNgbK5/0+MxLVHJ3eU0lBthPoqflYkhnPBrOxa/7GA4BSi9M=","expireInSeconds":86400,"userId":1},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"id":"646174733976469504","sort":"646174733976469504","isActive":true,"code":"CD15","name":"红旗连锁15","pyCode":"HQLS","businessType":1,"businessTypeName":"直营","province":"四川省","city":"成都市","zone":"武侯区","street":"武侯大道888号","address":"新希望大厦B座","openTime":"08:00","closeTime":"22:00","storePhone":"15222222222","longitude":"经度","latitude":"纬度","imageUrls":[]},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"id":"646652337045110784","sort":"646652337045110784","isActive":true,"code":"CD16","name":"红旗连锁16","pyCode":"HQLS","businessType":1,"businessTypeName":"直营","province":"四川","city":"成都市","zone":"武侯区","address":"新希望大厦B座","openTime":"08:00","closeTime":"22:00","storePhone":"15222222222","longitude":"经度","latitude":"纬度","imageUrls":[]},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{"result":{"id":"646174740603469824","sort":"646174740603469824","isActive":true,"storeId":"646174733976469504","code":"15","name":"15","pyCode":"15","communicationPassword":"123456","machineName":"","storeIdName":"红旗连锁15","storeCode":"CD15"},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"result":{"id":"646652341965029376","sort":"646652341965029376","isActive":true,"storeId":"646652337045110784","code":"16","name":"16","pyCode":"16","communicationPassword":"123456","machineName":"","storeIdName":"红旗连锁16","storeCode":"CD16"},"targetUrl":null,"success":true,"error":null,"unAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"该POS已被绑定，请先解绑！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"Id":646652349997121536,"TenantId":1,"StoreId":646652337045110784,"PosId":646652341965029376,"Platform":1,"MachineMac":"00-50-56-C0-00-01","MachineName":"DESKTOP-5T5IDNR","BindTime":"2019-11-20T18:05:34.4605762+08:00","UnBindTime":"0001-01-01T00:00:00","StoreName":"红旗连锁16","StoreCode":"CD16","Province":"四川","City":"成都市","Zone":"武侯区","Address":"新希望大厦B座","StorePhone":"15222222222","PosName":"16","PosCode":"16","GraspPayAccount":null},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454219704696832,"Sort":644454219704696832,"ProductCategoryId":644454035977404416,"Code":"012","Name":"薯片","PyCode":"sp","Spec":"袋","PricingMode":1},{"Id":644830785353809920,"Sort":644830785353809920,"ProductCategoryId":644454035977404416,"Code":"6926032345039","Name":"台风天","PyCode":null,"Spec":"刚刚","PricingMode":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219704696832,"Sort":644454219704696832,"ProductCategoryId":644454035977404416,"Code":"012","Name":"葡萄酒","PyCode":"ptj","Spec":"瓶","PricingMode":1},{"Id":644830785353809920,"Sort":644830785353809920,"ProductCategoryId":644454035977404416,"Code":"6926032345039","Name":"台风天","PyCode":null,"Spec":"刚刚","PricingMode":1},{"Id":646263281937285120,"Sort":646263281937285120,"ProductCategoryId":644776932365303808,"Code":"123","Name":"PC端新增","PyCode":null,"Spec":"1","PricingMode":1},{"Id":646263953340497920,"Sort":646263953340497920,"ProductCategoryId":644776825540575232,"Code":"1232","Name":"123","PyCode":null,"Spec":"2","PricingMode":1},{"Id":646265147773419520,"Sort":646265147773419520,"ProductCategoryId":644776584967880704,"Code":"999","Name":"Pc99","PyCode":null,"Spec":"9","PricingMode":1},{"Id":646545370553253888,"Sort":646545370553253888,"ProductCategoryId":644454035977404416,"Code":"gd01","Name":"果冻","PyCode":"gd","Spec":"斤","PricingMode":1},{"Id":646550155411062784,"Sort":646550155411062784,"ProductCategoryId":644454035977404416,"Code":"27425","Name":"陈辀","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646554903665180672,"Sort":646554903665180672,"ProductCategoryId":644454035977404416,"Code":"38949","Name":"左砹","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646561337182257152,"Sort":646561337182257152,"ProductCategoryId":644454035977404416,"Code":"37360","Name":"刘簰","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646564349430726656,"Sort":646564349430726656,"ProductCategoryId":644454035977404416,"Code":"26885","Name":"张贒","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646567100806070272,"Sort":646567100806070272,"ProductCategoryId":644454035977404416,"Code":"30235","Name":"张遈","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646591471973040128,"Sort":646591471973040128,"ProductCategoryId":644454035977404416,"Code":"21167","Name":"陈欝","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646595347988086784,"Sort":646595347988086784,"ProductCategoryId":644454035977404416,"Code":"33255","Name":"陈鞻","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646598698570088448,"Sort":646598698570088448,"ProductCategoryId":644454035977404416,"Code":"29098","Name":"刘鴄","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646601614303428608,"Sort":646601614303428608,"ProductCategoryId":644454035977404416,"Code":"29062","Name":"王頡","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646603265441529856,"Sort":646603265441529856,"ProductCategoryId":644454035977404416,"Code":"28601","Name":"肖逸","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646606936745181184,"Sort":646606936745181184,"ProductCategoryId":644454035977404416,"Code":"28602","Name":"陈箫","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646609333735391232,"Sort":646609333735391232,"ProductCategoryId":644454035977404416,"Code":"sp01","Name":"薯片","PyCode":"sp","Spec":"袋","PricingMode":1},{"Id":646615534271463424,"Sort":646615534271463424,"ProductCategoryId":644454035977404416,"Code":"34281","Name":"左釼","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646619392884342784,"Sort":646619392884342784,"ProductCategoryId":644454035977404416,"Code":"31955","Name":"王古","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646632276335001600,"Sort":646632276335001600,"ProductCategoryId":644454035977404416,"Code":"34122","Name":"左敐","PyCode":null,"Spec":"个","PricingMode":1},{"Id":646634607726297088,"Sort":646634607726297088,"ProductCategoryId":644454035977404416,"Code":"23990","Name":"肖显","PyCode":null,"Spec":"个","PricingMode":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454219750834176,"ProductId":644454219704696832,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":5.0000000000,"MemberPrice":4.0000000000},{"Id":644830785353809921,"ProductId":644830785353809920,"StandardName":"对对对","StandardRelation":0.0000000000,"RetailPrice":14.0000000000,"MemberPrice":25.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProductId":644454219704696832,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":50.0000000000,"MemberPrice":50.0000000000},{"Id":644830785353809921,"ProductId":644830785353809920,"StandardName":"对对对","StandardRelation":0.0000000000,"RetailPrice":14.0000000000,"MemberPrice":25.0000000000},{"Id":646259098840465408,"ProductId":646259098836271104,"StandardName":"袋","StandardRelation":0.0000000000,"RetailPrice":10.0000000000,"MemberPrice":8.0000000000},{"Id":646259879807287297,"ProductId":646259879807287296,"StandardName":"袋","StandardRelation":0.0000000000,"RetailPrice":20.0000000000,"MemberPrice":18.0000000000},{"Id":646260261803524097,"ProductId":646260261803524096,"StandardName":"123","StandardRelation":0.0000000000,"RetailPrice":35.0000000000,"MemberPrice":30.0000000000},{"Id":646261483012882433,"ProductId":646261483012882432,"StandardName":"1","StandardRelation":0.0000000000,"RetailPrice":15.0000000000,"MemberPrice":13.0000000000},{"Id":646263281937285121,"ProductId":646263281937285120,"StandardName":"1","StandardRelation":0.0000000000,"RetailPrice":10.0000000000,"MemberPrice":8.0000000000},{"Id":646263953340497921,"ProductId":646263953340497920,"StandardName":"1","StandardRelation":0.0000000000,"RetailPrice":1.0000000000,"MemberPrice":1.0000000000},{"Id":646265147773419521,"ProductId":646265147773419520,"StandardName":"9","StandardRelation":0.0000000000,"RetailPrice":9.0000000000,"MemberPrice":9.0000000000},{"Id":646545370591002624,"ProductId":646545370553253888,"StandardName":"斤","StandardRelation":1.0000000000,"RetailPrice":20.0000000000,"MemberPrice":20.0000000000},{"Id":646550155411062785,"ProductId":646550155411062784,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646554903665180673,"ProductId":646554903665180672,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646561337182257153,"ProductId":646561337182257152,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646564349430726657,"ProductId":646564349430726656,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646567100806070273,"ProductId":646567100806070272,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646591471973040129,"ProductId":646591471973040128,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646595347988086785,"ProductId":646595347988086784,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646598698570088449,"ProductId":646598698570088448,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646601614303428609,"ProductId":646601614303428608,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646603265441529857,"ProductId":646603265441529856,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646606936745181185,"ProductId":646606936745181184,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646609333743779840,"ProductId":646609333735391232,"StandardName":"袋","StandardRelation":1.0000000000,"RetailPrice":9.0000000000,"MemberPrice":9.0000000000},{"Id":646615534271463425,"ProductId":646615534271463424,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646619392884342785,"ProductId":646619392884342784,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000},{"Id":646632276335001601,"ProductId":646632276335001600,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":81.0000000000},{"Id":646634607726297089,"ProductId":646634607726297088,"StandardName":"个","StandardRelation":0.0000000000,"RetailPrice":88.0000000000,"MemberPrice":80.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454219776000000,"BaseProductStandardId":644454219750834176,"BarCode":"11111111"},{"Id":644830785353809922,"BaseProductStandardId":644830785353809921,"BarCode":"6926032345039"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219776000000,"BaseProductStandardId":644454219750834176,"BarCode":"11111111"},{"Id":644830785353809922,"BaseProductStandardId":644830785353809921,"BarCode":"6926032345039"},{"Id":646259098840465409,"BaseProductStandardId":646259098840465408,"BarCode":"12345678"},{"Id":646259879807287298,"BaseProductStandardId":646259879807287297,"BarCode":"1234567890123"},{"Id":646260261803524098,"BaseProductStandardId":646260261803524097,"BarCode":"87654321"},{"Id":646261483012882434,"BaseProductStandardId":646261483012882433,"BarCode":"1234567899876"},{"Id":646263281937285122,"BaseProductStandardId":646263281937285121,"BarCode":"22222222"},{"Id":646263953340497922,"BaseProductStandardId":646263953340497921,"BarCode":"33333333"},{"Id":646265147773419522,"BaseProductStandardId":646265147773419521,"BarCode":"99999999"},{"Id":646545370611974144,"BaseProductStandardId":646545370591002624,"BarCode":"11112223"},{"Id":646550155411062786,"BaseProductStandardId":646550155411062785,"BarCode":"90000002"},{"Id":646554903665180674,"BaseProductStandardId":646554903665180673,"BarCode":"90000004"},{"Id":646561337182257154,"BaseProductStandardId":646561337182257153,"BarCode":"90000006"},{"Id":646564349430726658,"BaseProductStandardId":646564349430726657,"BarCode":"90000008"},{"Id":646567100806070274,"BaseProductStandardId":646567100806070273,"BarCode":"90000010"},{"Id":646591471973040130,"BaseProductStandardId":646591471973040129,"BarCode":"90000012"},{"Id":646595347988086786,"BaseProductStandardId":646595347988086785,"BarCode":"90000014"},{"Id":646598698570088450,"BaseProductStandardId":646598698570088449,"BarCode":"90000016"},{"Id":646601614303428610,"BaseProductStandardId":646601614303428609,"BarCode":"90000018"},{"Id":646603265441529858,"BaseProductStandardId":646603265441529857,"BarCode":"90000020"},{"Id":646606936745181186,"BaseProductStandardId":646606936745181185,"BarCode":"90000022"},{"Id":646609333743779841,"BaseProductStandardId":646609333743779840,"BarCode":"sp000001"},{"Id":646615534271463426,"BaseProductStandardId":646615534271463425,"BarCode":"90000024"},{"Id":646619392884342786,"BaseProductStandardId":646619392884342785,"BarCode":"90000025"},{"Id":646632276335001602,"BaseProductStandardId":646632276335001601,"BarCode":"@#121"},{"Id":646634607726297090,"BaseProductStandardId":646634607726297089,"BarCode":"90000003"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":1,"UserName":"admin","PosClientSalt":"fadf4e02-1c7c-49dd-bef0-9f0a201e7222","PosClientPassword":"3E337B184C41365203FC721F1C8E0C113A0BB37E","Permission":null},{"Id":2,"UserName":"ly","PosClientSalt":"501b1f00-2939-4e8a-b671-a5482df4805a","PosClientPassword":"E4680A1D7E43785850FC678D5286158F57972472","Permission":null},{"Id":3,"UserName":"zh","PosClientSalt":"655111a0-86bc-4e12-994b-8c9aa72d6687","PosClientPassword":"B91BA1FC0BA8ED717D35E6AEA290C80B29E31E59","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":1,"UserName":"admin","PosClientSalt":"fadf4e02-1c7c-49dd-bef0-9f0a201e7222","PosClientPassword":"3E337B184C41365203FC721F1C8E0C113A0BB37E","Permission":null},{"Id":2,"UserName":"ly","PosClientSalt":"501b1f00-2939-4e8a-b671-a5482df4805a","PosClientPassword":"E4680A1D7E43785850FC678D5286158F57972472","Permission":null},{"Id":3,"UserName":"zh","PosClientSalt":"655111a0-86bc-4e12-994b-8c9aa72d6687","PosClientPassword":"B91BA1FC0BA8ED717D35E6AEA290C80B29E31E59","Permission":null},{"Id":4,"UserName":"Cheny1","PosClientSalt":"c8ff4cfc-dd6c-4251-a4aa-530e0a106a38","PosClientPassword":"390A51DE53CC7EF46F51DDDDE57DA7CB4750CF97","Permission":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="I52" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":646545027685679104,"Sort":646545027685679104,"Code":"QC8Z","Name":"全场8折","PyCode":null,"ProjectType":2,"BeginDate":"2019-11-01","EndDate":"2019-12-14","BeginTime":"","EndTime":"","Remark":"ly全场8折","PeriodType":1,"PeriodDays":"","ExceptDays":"","UseRangeType":1},{"Id":646546140879126528,"Sort":646546140879126528,"Code":"SP7Z","Name":"薯片7折","PyCode":null,"ProjectType":2,"BeginDate":null,"EndDate":null,"BeginTime":"","EndTime":"","Remark":"ly薯片7折","PeriodType":1,"PeriodDays":"","ExceptDays":"","UseRangeType":1},{"Id":646546393640468480,"Sort":646546393640468480,"Code":"TJ8Y","Name":"果冻特价8元","PyCode":null,"ProjectType":1,"BeginDate":null,"EndDate":null,"BeginTime":"","EndTime":"","Remark":"ly果冻特价8元","PeriodType":1,"PeriodDays":"","ExceptDays":"","UseRangeType":1}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J52" s="0" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="I58" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":646195009640464384,"DiscountPercent":8,"DiscountConditionTotal":8.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646197358962409472,"DiscountPercent":80,"DiscountConditionTotal":60.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646229954169667584,"DiscountPercent":50,"DiscountConditionTotal":20.0000000000,"IsAllProduct":true,"IsSetProductCategory":false},{"Id":646231781560811520,"DiscountPercent":50,"DiscountConditionTotal":62.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646232913993531392,"DiscountPercent":50,"DiscountConditionTotal":3.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646233181296525312,"DiscountPercent":50,"DiscountConditionTotal":32.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646233927094108160,"DiscountPercent":50,"DiscountConditionTotal":10.0000000000,"IsAllProduct":true,"IsSetProductCategory":true},{"Id":646236483006496768,"DiscountPercent":99,"DiscountConditionTotal":99.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646237632803635200,"DiscountPercent":99,"DiscountConditionTotal":99.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646240301270171648,"DiscountPercent":99,"DiscountConditionTotal":99.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646240461198983168,"DiscountPercent":99,"DiscountConditionTotal":99.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646241058715336704,"DiscountPercent":99,"DiscountConditionTotal":99.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646242897649205248,"DiscountPercent":20,"DiscountConditionTotal":10.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646244369975738368,"DiscountPercent":10,"DiscountConditionTotal":50.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646244943915909120,"DiscountPercent":20,"DiscountConditionTotal":10.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646246071520985088,"DiscountPercent":20,"DiscountConditionTotal":0.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646246396315303936,"DiscountPercent":20,"DiscountConditionTotal":30.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646247771422064640,"DiscountPercent":99,"DiscountConditionTotal":99.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646248402413158400,"DiscountPercent":30,"DiscountConditionTotal":1.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646250648131600384,"DiscountPercent":50,"DiscountConditionTotal":30.0000000000,"IsAllProduct":false,"IsSetProductCategory":false},{"Id":646532054074261504,"DiscountPercent":80,"DiscountConditionTotal":200.0000000000,"IsAllProduct":true,"IsSetProductCategory":false},{"Id":646532299894030336,"DiscountPercent":50,"DiscountConditionTotal":20.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646543353470517248,"DiscountPercent":80,"DiscountConditionTotal":0.0000000000,"IsAllProduct":false,"IsSetProductCategory":true},{"Id":646545027685679104,"DiscountPercent":80,"DiscountConditionTotal":0.0000000000,"IsAllProduct":true,"IsSetProductCategory":false},{"Id":646546140879126528,"DiscountPercent":70,"DiscountConditionTotal":0.0000000000,"IsAllProduct":false,"IsSetProductCategory":false}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J58" s="0" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":645831547324203008},{"Id":645863476639563776},{"Id":645871153105076224},{"Id":645874716862578688},{"Id":645876439333208064},{"Id":645877294501462016},{"Id":645909173506146304},{"Id":645917931175149568},{"Id":645918550506078208},{"Id":646162047800705024},{"Id":646163091762970624}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":645831547324203008},{"Id":645863476639563776},{"Id":645871153105076224},{"Id":645874716862578688},{"Id":645876439333208064},{"Id":645877294501462016},{"Id":645909173506146304},{"Id":645917931175149568},{"Id":645918550506078208},{"Id":646162047800705024},{"Id":646163091762970624},{"Id":646194010708246528},{"Id":646302531592388608},{"Id":646535577516113920},{"Id":646538217188753408},{"Id":646546393640468480}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I70" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644103530449207296,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296},{"Id":644103624401616896,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103624401616896},{"Id":645819939076177920,"ProjectId":645819938946154496,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645831547403894784,"ProjectId":645831547324203008,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645863476673118208,"ProjectId":645863476639563776,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645877294514044928,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645877294514044929,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400},{"Id":645909173569060864,"ProjectId":645909173506146304,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645909173594226688,"ProjectId":645909173506146304,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":645917931200315392,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645917931200315393,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644103530449207296,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296},{"Id":644103624401616896,"ProjectId":0,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103624401616896},{"Id":645819939076177920,"ProjectId":645819938946154496,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":null},{"Id":645863476673118208,"ProjectId":645863476639563776,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645877294514044928,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645877294514044929,"ProjectId":645877294501462016,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400},{"Id":645909173569060864,"ProjectId":645909173506146304,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":null},{"Id":645909173594226688,"ProjectId":645909173506146304,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":645917931200315392,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":645917931200315393,"ProjectId":645917931175149568,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103796581990400},{"Id":646197359042101248,"ProjectId":646197358962409472,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":646197359067267072,"ProjectId":646197358962409472,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184436060127232},{"Id":646197359067267073,"ProjectId":646197358962409472,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184769868005376},{"Id":646231781619531776,"ProjectId":646231781560811520,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184539147730944},{"Id":646231781636308992,"ProjectId":646231781560811520,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184769868005376},{"Id":646232914006114304,"ProjectId":646232913993531392,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":646238622265114624,"ProjectId":645831547324203008,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":646238622269308928,"ProjectId":645831547324203008,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":645820553633988608},{"Id":646242897707925504,"ProjectId":646242897649205248,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":null},{"Id":646244369984126976,"ProjectId":646244369975738368,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":644103717229953024},{"Id":646250648169349120,"ProjectId":646250648131600384,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184436060127232},{"Id":646250648186126336,"ProjectId":646250648131600384,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":645820553633988608},{"Id":646250648186126337,"ProjectId":646250648131600384,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184769868005376},{"Id":646302531768549376,"ProjectId":646302531592388608,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":null},{"Id":646302531785326592,"ProjectId":646302531592388608,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":null},{"Id":646540342299983872,"ProjectId":646538217188753408,"MemberCardTypeId":644103412081754112,"MemberCardTypeLevelId":645924895393316864},{"Id":646540342325149696,"ProjectId":646538217188753408,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":645820553633988608},{"Id":646540342325149697,"ProjectId":646538217188753408,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184539147730944},{"Id":646540342325149698,"ProjectId":646538217188753408,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184769868005376},{"Id":646543353529237504,"ProjectId":646543353470517248,"MemberCardTypeId":645814470253215744,"MemberCardTypeLevelId":645820553633988608},{"Id":646543353529237505,"ProjectId":646543353470517248,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184539147730944},{"Id":646543353529237506,"ProjectId":646543353470517248,"MemberCardTypeId":646168330255728640,"MemberCardTypeLevelId":646184436060127232}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J70" s="0" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="I76" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454035977404416,"ProjectId":646231781560811520,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":644776584967880704,"ProjectId":646231781560811520,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":644776825540575232,"ProjectId":646233181296525312,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646232914001920000,"ProjectId":646232913993531392,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646232914001920001,"ProjectId":646232913993531392,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646233927094108161,"ProjectId":646233927094108160,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646233927094108162,"ProjectId":646233927094108160,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646236483019079680,"ProjectId":646236483006496768,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646236483035856896,"ProjectId":646236483006496768,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646237632803635201,"ProjectId":646237632803635200,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646237632803635202,"ProjectId":646237632803635200,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646241058723725312,"ProjectId":646241058715336704,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646241058744696832,"ProjectId":646241058715336704,"ProjectProductCategoryId":0,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646242897657593856,"ProjectId":646242897649205248,"ProjectProductCategoryId":644776825540575232,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646242897678565376,"ProjectId":646242897649205248,"ProjectProductCategoryId":644776932365303808,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646244369975738369,"ProjectId":646244369975738368,"ProjectProductCategoryId":644454035977404416,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646244943915909121,"ProjectId":646244943915909120,"ProjectProductCategoryId":644776932365303808,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646247981674135552,"ProjectId":646244943915909120,"ProjectProductCategoryId":644776825540575232,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646250093460062208,"ProjectId":646246071520985088,"ProjectProductCategoryId":644454035977404416,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646250093476839424,"ProjectId":646246071520985088,"ProjectProductCategoryId":644776584967880704,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646532299898224640,"ProjectId":646532299894030336,"ProjectProductCategoryId":644454035977404416,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646543353499877376,"ProjectId":646543353470517248,"ProjectProductCategoryId":644454035977404416,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null},{"Id":646543462501449728,"ProjectId":646543353470517248,"ProjectProductCategoryId":644776584967880704,"ProjectProductCategoryName":null,"ProjectProductCategoryCode":null}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J76" s="0" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="I82" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProjectId":646231781560811520,"ProductStandardId":644454219750834176},{"Id":644830785353809921,"ProjectId":646231781560811520,"ProductStandardId":644830785353809921},{"Id":646195009732739072,"ProjectId":646195009640464384,"ProductStandardId":644454219750834176},{"Id":646197358987575296,"ProjectId":646197358962409472,"ProductStandardId":644830785353809921},{"Id":646240301282754560,"ProjectId":646240301270171648,"ProductStandardId":644454219750834176},{"Id":646240301299531776,"ProjectId":646240301270171648,"ProductStandardId":644830785353809921},{"Id":646240461203177472,"ProjectId":646240461198983168,"ProductStandardId":644454219750834176},{"Id":646240461203177473,"ProjectId":646240461198983168,"ProductStandardId":644830785353809921},{"Id":646246071525179392,"ProjectId":646246071520985088,"ProductStandardId":644454219750834176},{"Id":646246071546150912,"ProjectId":646246071520985088,"ProductStandardId":644830785353809921},{"Id":646246396315303937,"ProjectId":646246396315303936,"ProductStandardId":644454219750834176},{"Id":646246396315303938,"ProjectId":646246396315303936,"ProductStandardId":644830785353809921},{"Id":646247771514339328,"ProjectId":646247771422064640,"ProductStandardId":644454219750834176},{"Id":646247771535310848,"ProjectId":646247771422064640,"ProductStandardId":644830785353809921},{"Id":646249952808271872,"ProjectId":646248402413158400,"ProductStandardId":644454219750834176},{"Id":646250648135794689,"ProjectId":646250648131600384,"ProductStandardId":644830785353809921},{"Id":646546140887515136,"ProjectId":646546140879126528,"ProductStandardId":644454219750834176}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J82" s="0" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="I88" s="0" t="inlineStr">
         <is>
-          <t>{"Result":[{"Id":644454219750834176,"ProjectId":0,"ProductStandardId":644454219750834176,"ProjectPrice":10.0000000000},{"Id":644830785353809921,"ProjectId":0,"ProductStandardId":644830785353809921,"ProjectPrice":10.0000000000},{"Id":645819938950348800,"ProjectId":645819938946154496,"ProductStandardId":644454219750834176,"ProjectPrice":5.0000000000},{"Id":645831547349368832,"ProjectId":645831547324203008,"ProductStandardId":644454219750834176,"ProjectPrice":5.0000000000},{"Id":645863476652146688,"ProjectId":645863476639563776,"ProductStandardId":644830785353809921,"ProjectPrice":12.0000000000},{"Id":645863476656340992,"ProjectId":645863476639563776,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645871153105076225,"ProjectId":645871153105076224,"ProductStandardId":644830785353809921,"ProjectPrice":10.0000000000},{"Id":645871153105076226,"ProjectId":645871153105076224,"ProductStandardId":644454219750834176,"ProjectPrice":10.0000000000},{"Id":645874716862578689,"ProjectId":645874716862578688,"ProductStandardId":644830785353809921,"ProjectPrice":12.0000000000},{"Id":645874716862578690,"ProjectId":645874716862578688,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645876439333208065,"ProjectId":645876439333208064,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645876439333208066,"ProjectId":645876439333208064,"ProductStandardId":644830785353809921,"ProjectPrice":3.0000000000},{"Id":645877294505656320,"ProjectId":645877294501462016,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645877294505656321,"ProjectId":645877294501462016,"ProductStandardId":644830785353809921,"ProjectPrice":3.0000000000},{"Id":645909173522923520,"ProjectId":645909173506146304,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":645909173527117824,"ProjectId":645909173506146304,"ProductStandardId":644454219750834176,"ProjectPrice":2.0000000000},{"Id":645917931183538176,"ProjectId":645917931175149568,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":645918550506078209,"ProjectId":645918550506078208,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":646162047830065152,"ProjectId":646162047800705024,"ProductStandardId":644454219750834176,"ProjectPrice":2.0000000000},{"Id":646163091783942144,"ProjectId":646163091762970624,"ProductStandardId":644454219750834176,"ProjectPrice":1.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":[{"Id":644454219750834176,"ProjectId":0,"ProductStandardId":644454219750834176,"ProjectPrice":10.0000000000},{"Id":644830785353809921,"ProjectId":0,"ProductStandardId":644830785353809921,"ProjectPrice":10.0000000000},{"Id":645819938950348800,"ProjectId":645819938946154496,"ProductStandardId":644454219750834176,"ProjectPrice":5.0000000000},{"Id":645831547349368832,"ProjectId":645831547324203008,"ProductStandardId":644454219750834176,"ProjectPrice":5.0000000000},{"Id":645863476652146688,"ProjectId":645863476639563776,"ProductStandardId":644830785353809921,"ProjectPrice":12.0000000000},{"Id":645863476656340992,"ProjectId":645863476639563776,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645871153105076225,"ProjectId":645871153105076224,"ProductStandardId":644830785353809921,"ProjectPrice":10.0000000000},{"Id":645871153105076226,"ProjectId":645871153105076224,"ProductStandardId":644454219750834176,"ProjectPrice":10.0000000000},{"Id":645874716862578689,"ProjectId":645874716862578688,"ProductStandardId":644830785353809921,"ProjectPrice":12.0000000000},{"Id":645874716862578690,"ProjectId":645874716862578688,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645876439333208065,"ProjectId":645876439333208064,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645876439333208066,"ProjectId":645876439333208064,"ProductStandardId":644830785353809921,"ProjectPrice":3.0000000000},{"Id":645877294505656320,"ProjectId":645877294501462016,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":645877294505656321,"ProjectId":645877294501462016,"ProductStandardId":644830785353809921,"ProjectPrice":3.0000000000},{"Id":645909173522923520,"ProjectId":645909173506146304,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":645909173527117824,"ProjectId":645909173506146304,"ProductStandardId":644454219750834176,"ProjectPrice":2.0000000000},{"Id":645917931183538176,"ProjectId":645917931175149568,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":645918550506078209,"ProjectId":645918550506078208,"ProductStandardId":644830785353809921,"ProjectPrice":2.0000000000},{"Id":646163091783942144,"ProjectId":646163091762970624,"ProductStandardId":644454219750834176,"ProjectPrice":1.0000000000},{"Id":646194010729218048,"ProjectId":646194010708246528,"ProductStandardId":644830785353809921,"ProjectPrice":5.0000000000},{"Id":646238562060075008,"ProjectId":646162047800705024,"ProductStandardId":644454219750834176,"ProjectPrice":2.0000000000},{"Id":646302531714023424,"ProjectId":646302531592388608,"ProductStandardId":646263281937285121,"ProjectPrice":10.0000000000},{"Id":646302531734994944,"ProjectId":646302531592388608,"ProductStandardId":646265147773419521,"ProjectPrice":10.0000000000},{"Id":646535994849361920,"ProjectId":646535577516113920,"ProductStandardId":644454219750834176,"ProjectPrice":3.0000000000},{"Id":646535994849361921,"ProjectId":646535577516113920,"ProductStandardId":644830785353809921,"ProjectPrice":24.0000000000},{"Id":646535994849361922,"ProjectId":646535577516113920,"ProductStandardId":646263281937285121,"ProjectPrice":7.0000000000},{"Id":646535994849361923,"ProjectId":646535577516113920,"ProductStandardId":646263953340497921,"ProjectPrice":0.0000000000},{"Id":646535994849361924,"ProjectId":646535577516113920,"ProductStandardId":646265147773419521,"ProjectPrice":8.0000000000},{"Id":646538217213919232,"ProjectId":646538217188753408,"ProductStandardId":644454219750834176,"ProjectPrice":8.0000000000},{"Id":646538217234890752,"ProjectId":646538217188753408,"ProductStandardId":644830785353809921,"ProjectPrice":8.0000000000},{"Id":646538217234890753,"ProjectId":646538217188753408,"ProductStandardId":646263281937285121,"ProjectPrice":8.0000000000},{"Id":646538217234890754,"ProjectId":646538217188753408,"ProductStandardId":646263953340497921,"ProjectPrice":8.0000000000},{"Id":646538217234890755,"ProjectId":646538217188753408,"ProductStandardId":646265147773419521,"ProjectPrice":8.0000000000},{"Id":646546393640468481,"ProjectId":646546393640468480,"ProductStandardId":646545370591002624,"ProjectPrice":8.0000000000}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J88" s="0" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="I94" s="0" t="inlineStr">
         <is>
-          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiI2NWNmNGMxMy0xNDMzLTRlNGMtYjkwMi05YzhjMWYwMGRhYmYiLCJpYXQiOjE1NzQxMzA1NDIsIkp3dENsaWVudFVuaXF1ZUlkIjoiMzhhYWI4ZTYtMDZmZC00ZTc4LWIxNmQtMjZhNjNmMGJiOTYzIiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NjE3NDczMzk3NjQ2OTUwNCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ2MTc0NzQwNjAzNDY5ODI0IiwibmJmIjoxNTc0MTMwNTQyLCJleHAiOjE1NzQyMTY5NDIsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.2F02QkzDDKjaRV6irR2fgyRgvAnoYytwbJUZdsi0NQg","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiI2MjliOTY0Ny0xNTEwLTRmZDYtYWExNS03NjM0YzcyMmFkOWYiLCJpYXQiOjE1NzQyNDQzNTMsIkp3dENsaWVudFVuaXF1ZUlkIjoiZDc4NmUxNzktYWE2YS00NDg5LWFlMmEtZWVkMDJjOGY3YzM0IiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NjY1MjMzNzA0NTExMDc4NCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ2NjUyMzQxOTY1MDI5Mzc2IiwibmJmIjoxNTc0MjQ0MzUzLCJleHAiOjE1NzQzMzA3NTMsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.4TIr-P_8oRkwflU95JZ6H9vDLzRJi0R7cJfrCltdQD4","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J94" s="0" t="inlineStr">
@@ -5609,8 +5609,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5802,12 +5802,12 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"Id":646652449519566848,"IsActive":false,"PersonName":"王幏","Gender":1,"PersonPhone":"15001","Province":null,"City":null,"Birthday":"2019-11-11","IsMemberUser":true,"MemberUser":{"Id":646652449519566848,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296,"JoinStoreId":0,"JoinTime":"0001-01-01T00:00:00","CardNumber":"15001","MemberCardType":null,"MemberCardTypeLevel":null,"JoinStoreName":null,"DepositTimes":0,"Money":0.0,"LeftMoney":0.0,"GivenMoney":0.0,"LeftGivenMoney":0.0,"Point":0.0,"LeftPoint":0.0,"PayTimes":0.0,"PayTotal":0.0,"LastPayTime":null}},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"An internal error occurred during your request!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"客户电话重复！&lt;br/&gt;卡号重复！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"Your request is not valid!","Details":"The following errors were detected during validation.\r\n - The PersonPhone field is required.\r\n","ValidationErrors":[{"Message":"The PersonPhone field is required.","Members":["personPhone"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The PersonPhone field is required.\r\n","ValidationErrors":[{"Message":"The PersonPhone field is required.","Members":["personPhone"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
@@ -5964,12 +5964,12 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"An internal error occurred during your request!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"Id":646652466699436032,"IsActive":false,"PersonName":"王幏","Gender":1,"PersonPhone":"15000","Province":null,"City":null,"Birthday":"2019-11-11","IsMemberUser":true,"MemberUser":{"Id":646652466699436032,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296,"JoinStoreId":0,"JoinTime":"0001-01-01T00:00:00","CardNumber":"20335","MemberCardType":null,"MemberCardTypeLevel":null,"JoinStoreName":null,"DepositTimes":0,"Money":0.0,"LeftMoney":0.0,"GivenMoney":0.0,"LeftGivenMoney":0.0,"Point":0.0,"LeftPoint":0.0,"PayTimes":0.0,"PayTotal":0.0,"LastPayTime":null}},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{"Result":null,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+          <t>{"Result":{"Id":646652449519566848,"IsActive":false,"PersonName":"王幏","Gender":1,"PersonPhone":"15001","Province":null,"City":null,"Birthday":"2019-11-11","IsMemberUser":true,"MemberUser":{"Id":646652449519566848,"MemberCardTypeId":644103254212345856,"MemberCardTypeLevelId":644103530449207296,"JoinStoreId":0,"JoinTime":"0001-01-01T00:00:00","CardNumber":"15001","MemberCardType":{"Id":644103254212345856,"Code":"0001","Name":"黄金VIP","PyCode":"hjVIP","ConsumeMode":1,"ValidateMode":1,"StoreLimitMode":1},"MemberCardTypeLevel":{"Id":644103530449207296,"MemberCardTypeId":644103254212345856,"RowIndex":0,"LevelName":"黄金等级555555555555544114422444444455555555555555553333333333333333","UpgradeTotal":200000000000.0000000000,"PointPerOneMoney":10.0000000000,"DiscountPercent":80.0000000000,"IsMemberPrice":true},"JoinStoreName":null,"DepositTimes":20,"Money":732.0000000000,"LeftMoney":723.0000000000,"GivenMoney":132.0000000000,"LeftGivenMoney":123.1000000000,"Point":15.0000000000,"LeftPoint":8.0000000000,"PayTimes":0.0,"PayTotal":0.0,"LastPayTime":null}},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
@@ -6102,6 +6102,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="2">
       <c r="A11" s="1" t="n">
@@ -6142,6 +6152,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="30" r="12" s="2">
       <c r="A12" s="1" t="n">
@@ -6180,6 +6200,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"手机号已被使用！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18" r="13" s="2">
       <c r="A13" s="1" t="n">
@@ -6218,6 +6248,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"手机号已被使用！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="21" r="14" s="2">
       <c r="A14" s="1" t="n">
@@ -6256,6 +6296,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The PersonPhone field is required.\r\n","ValidationErrors":[{"Message":"The PersonPhone field is required.","Members":["personPhone"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="15" s="2">
       <c r="A15" s="1" t="n">
@@ -6293,6 +6343,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="16" s="2">
       <c r="A16" s="1" t="n">
@@ -6330,6 +6390,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="17" s="2">
       <c r="A17" s="1" t="n">
@@ -6367,6 +6437,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" s="2">
       <c r="A18" s="1" t="n">
@@ -6404,6 +6484,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="19" s="2">
       <c r="A19" s="1" t="n">
@@ -6441,6 +6531,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="20" s="2">
       <c r="A20" s="1" t="n">
@@ -6478,6 +6578,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="21" s="2">
       <c r="A21" s="1" t="n">
@@ -6515,6 +6625,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="22" s="2">
       <c r="A22" s="1" t="n">
@@ -6553,6 +6673,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":false,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="23" s="2">
       <c r="A23" s="1" t="n">
@@ -6587,6 +6717,16 @@
         </is>
       </c>
       <c r="H23" s="0" t="n"/>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":false,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="24" s="2">
       <c r="A24" s="1" t="n">
@@ -6626,6 +6766,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"会员卡原密码不正确","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="25" s="2">
       <c r="A25" s="1" t="n">
@@ -6665,6 +6815,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"会员卡原密码不正确","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="26" s="2">
       <c r="A26" s="1" t="n">
@@ -6704,6 +6864,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"会员卡原密码不正确","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="27" s="2">
       <c r="A27" s="1" t="n">
@@ -6743,6 +6913,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The CardPassword field is required.\r\n","ValidationErrors":[{"Message":"The CardPassword field is required.","Members":["cardPassword"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="28" s="2">
       <c r="A28" s="1" t="n">
@@ -6778,6 +6958,16 @@
       <c r="H28" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -6819,6 +7009,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="67.5" r="30" s="2">
       <c r="A30" s="1" t="n">
@@ -6858,6 +7058,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="67.5" r="31" s="2">
       <c r="A31" s="1" t="n">
@@ -6897,6 +7107,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="32" s="2">
       <c r="A32" s="1" t="n">
@@ -6933,6 +7153,16 @@
       <c r="H32" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -6974,6 +7204,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="34" s="2">
       <c r="A34" s="1" t="n">
@@ -6981,7 +7221,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>MemberPay</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -7012,6 +7252,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":{"MemberPayId":646652602980761600},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="35" s="2">
       <c r="A35" s="1" t="n">
@@ -7049,6 +7299,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="36" s="2">
       <c r="A36" s="1" t="n">
@@ -7056,7 +7316,7 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>MemberPay</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -7087,6 +7347,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":{"MemberPayId":646652613038702592},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="37" s="2">
       <c r="A37" s="1" t="n">
@@ -7094,7 +7364,7 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>MemberPay</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -7125,6 +7395,16 @@
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":{"MemberPayId":646652618155753472},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="38" s="2">
       <c r="A38" s="1" t="n">
@@ -7162,6 +7442,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="39" s="2">
       <c r="A39" s="1" t="n">
@@ -7169,7 +7459,7 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>MemberPay</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -7198,6 +7488,16 @@
       <c r="H39" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":{"MemberPayId":646652628175945728},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -7239,6 +7539,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="54" r="41" s="2">
       <c r="A41" s="1" t="n">
@@ -7268,13 +7578,23 @@
         <is>
           <t>{
   "MemberPersonId": "#MemberPersonId#",
-  "CardNumber": "1119"
+  "CardNumber": "#MemberPersonId#"
 }</t>
         </is>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":true,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -7289,10 +7609,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7403,6 +7723,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -7477,8 +7799,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I2" s="0" t="n"/>
-      <c r="J2" s="0" t="n"/>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="3" s="1">
       <c r="A3" s="1" t="n">
@@ -7523,6 +7853,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "#LastShiftKey#",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -7597,8 +7929,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I3" s="0" t="n"/>
-      <c r="J3" s="0" t="n"/>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="4" s="1">
       <c r="A4" s="1" t="n">
@@ -7643,6 +7983,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -7692,8 +8034,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I4" s="0" t="n"/>
-      <c r="J4" s="0" t="n"/>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="5" s="1">
       <c r="A5" s="1" t="n">
@@ -7738,6 +8088,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "#LastShiftKey#",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -7787,8 +8139,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I5" s="0" t="n"/>
-      <c r="J5" s="0" t="n"/>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16" r="6" s="1">
       <c r="A6" s="1" t="n">
@@ -24245,6 +24605,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -24365,6 +24727,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "#LastShiftKey#",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -24485,6 +24849,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": true,
@@ -24498,6 +24864,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -24597,8 +24965,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I9" s="0" t="n"/>
-      <c r="J9" s="0" t="n"/>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="10" s="1">
       <c r="A10" s="1" t="n">
@@ -24638,11 +25014,13 @@
   "DiscountTotal": 60,
   "FinalTotal": 40,
   "Remark": "使用任我行支付",
-  "OriginalBillNumber": "",
+  "OriginalBillNumber": "#OriginalBillNumber#",
   "ClientBillOrderDetailList": [
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "#LastShiftKey#",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": true,
@@ -24656,6 +25034,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "#LastShiftKey#",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -24755,8 +25135,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I10" s="0" t="n"/>
-      <c r="J10" s="0" t="n"/>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="16" r="11" s="2">
       <c r="A11" s="1" t="n">
@@ -24801,6 +25189,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#TProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": true,
@@ -24814,6 +25204,8 @@
   {
       "BillNumber": "#BillNumber#",
       "RowIndex": 2,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#TProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -24834,7 +25226,7 @@
       "ProjectPayLog": {
         "BillNumber": "",
         "RowIndex": 1,
-        "ProjectMasterId": "",
+        "ProjectMasterId": 0,
         "ProjectMasterName": ""
       },
       "MemberCardPayLog": {
@@ -24859,7 +25251,7 @@
       "ProjectPayLog": {
         "BillNumber": "#BillNumber#",
         "RowIndex": 1,
-        "ProjectMasterId": "#TProjectId#",
+        "ProjectMasterId": #TProjectId#,
         "ProjectMasterName": "#TProjectMasterName#"
       },
       "MemberCardPayLog": {
@@ -24884,7 +25276,7 @@
       "ProjectPayLog": {
         "BillNumber": "",
         "RowIndex": 0,
-        "ProjectMasterId": "",
+        "ProjectMasterId": 0,
         "ProjectMasterName": ""
       },
       "MemberCardPayLog": {
@@ -24912,6 +25304,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="12" s="2">
       <c r="A12" s="1" t="n">
@@ -24956,6 +25358,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#ProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -24969,6 +25373,8 @@
   {
       "BillNumber": "#BillNumber#",
       "RowIndex": 2,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#ZProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -24989,7 +25395,7 @@
       "ProjectPayLog": {
         "BillNumber": "",
         "RowIndex": 1,
-        "ProjectMasterId": "",
+        "ProjectMasterId": 0,
         "ProjectMasterName": ""
       },
       "MemberCardPayLog": {
@@ -25014,7 +25420,7 @@
       "ProjectPayLog": {
         "BillNumber": "#BillNumber#",
         "RowIndex": 1,
-        "ProjectMasterId": "#AZProjectId#",
+        "ProjectMasterId": #AZProjectId#,
         "ProjectMasterName": "全场8折"
       },
       "MemberCardPayLog": {
@@ -25039,7 +25445,7 @@
       "ProjectPayLog": {
         "BillNumber": "#BillNumber#",
         "RowIndex": 1,
-        "ProjectMasterId": "#ZProjectId#",
+        "ProjectMasterId": #ZProjectId#,
         "ProjectMasterName": "薯片7折"
       },
       "MemberCardPayLog": {
@@ -25067,6 +25473,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="13" s="2">
       <c r="A13" s="1" t="n">
@@ -25111,6 +25527,8 @@
     {
       "BillNumber": "#BillNumber#",
       "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
       "ProductStandardId": "#TProductStandardId#",
       "BusinessManId": "#UserId#",
       "IsGift": false,
@@ -25159,6 +25577,16 @@
           <t>{"Success":True}</t>
         </is>
       </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="14" s="2">
       <c r="A14" s="1" t="n">
@@ -25171,20 +25599,66 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
+          <t>http://serverAddress/api/services/app/Checkout/GetBill</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>获取账单</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>{"BillNumber":"#OriginalBillNumber#"}</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="n"/>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="15" s="2">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>CheckOut</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
           <t>http://serverAddress/api/services/app/Checkout/PostBillList</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>批量上传账单</t>
         </is>
       </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>[
   {
@@ -25204,6 +25678,8 @@
       {
         "BillNumber": "#BillNumber#",
         "RowIndex": 1,
+        "OrderDetailId": "#ShiftKey#",
+        "OriginalOrderDetailId": "",
         "ProductStandardId": "#ProductStandardId#",
         "BusinessManId": "#UserId#",
         "IsGift": false,
@@ -25262,6 +25738,8 @@
       {
         "BillNumber": "a#BillNumber#",
         "RowIndex": 1,
+        "OrderDetailId": "#ShiftKey#",
+        "OriginalOrderDetailId": "",
         "ProductStandardId": "#ProductStandardId#",
         "BusinessManId": "#UserId#",
         "IsGift": false,
@@ -25306,50 +25784,22 @@
 ]</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I14" s="0" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="15" s="2">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>CheckOut</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>http://serverAddress/api/services/app/Checkout/GetBill</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>获取账单</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>{"BillNumber":"#BillNumber#"}</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="n"/>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>{"Success":True}</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="n"/>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":[{"BillNumber":"a201911130000000094","IsOk":false,"ErrorMessage":"Cannot set MySqlCommand.CommandText when there is an open DataReader for this command; it must be closed first."},{"BillNumber":"201911130000000094","IsOk":false,"ErrorMessage":"A second operation started on this context before a previous operation completed. This is usually caused by different threads using the same instance of DbContext, however instance members are not guaranteed to be thread safe. This could also be caused by a nested query being evaluated on the client, if this is the case rewrite the query avoiding nested invocations."}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="16" s="2">
       <c r="A16" s="1" t="n">
@@ -25362,27 +25812,99 @@
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>http://serverAddress/api/services/app/Checkout/GetAll</t>
+          <t>http://serverAddress/api/services/app/Checkout/PostBill</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>获取账单列表</t>
+          <t>账单号重复，上传账单</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr"/>
-      <c r="G16" s="0" t="n"/>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>{
+  "BillNumber": "#OriginalBillNumber#",
+  "BillType": 1,
+  "ClientPosBindId": "#ClientPosBindId#",
+  "MemberUserId": 0,
+  "ClientShiftKey": "#ShiftKey#",
+  "CreationTime": "2019-11-12T06:22:39.435Z",
+  "CreatorUserId": 0,
+  "OriginalTotal": 100,
+  "DiscountTotal": 20,
+  "FinalTotal": 80,
+  "Remark": "使用现金，整单折扣20%",
+  "OriginalBillNumber": "",
+  "ClientBillOrderDetailList": [
+    {
+      "BillNumber": "#BillNumber#",
+      "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
+      "ProductStandardId": "#ProductStandardId#",
+      "BusinessManId": "#UserId#",
+      "IsGift": false,
+      "ServerPrice": 50,
+      "Qty": 2,
+      "BackQty": 0,
+      "OriginalTotal": 100,
+      "DiscountTotal": 20,
+      "FinalTotal": 80
+    }
+  ],
+  "ClientBillPayDetailList": [
+    {
+      "BillNumber": "#BillNumber#",
+      "RowIndex": 1,
+      "PaymentWayId": "#RMBId#",
+      "Amount": 80,
+      "ProjectPayLog": {
+        "BillNumber": "",
+        "RowIndex": 0,
+        "ProjectMasterId": 0,
+        "ProjectMasterName": ""
+      },
+      "MemberCardPayLog": {
+        "BillNumber": "",
+        "RowIndex": 0,
+        "MemberPayId": 0
+      },
+      "GraspPayLog": {
+        "BillNumber": "", 
+        "RowIndex": 0,
+        "BusinessId": "",
+        "OutBillNumberId": "",
+        "GraspBillNumberId": ""
+      },
+      "PaymentWayName": "人民币"
+    }
+  ],
+  "MemberPersonName": "",
+  "CreatorUserName": "#UserName#"
+}</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="n"/>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>{"Success":True}</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="n"/>
+          <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="17" s="2">
       <c r="A17" s="1" t="n">
@@ -25395,20 +25917,158 @@
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
+          <t>http://serverAddress/api/services/app/Checkout/PostBill</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>账单号为空，上传账单</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>{
+  "BillNumber": "",
+  "BillType": 1,
+  "ClientPosBindId": "#ClientPosBindId#",
+  "MemberUserId": 0,
+  "ClientShiftKey": "#ShiftKey#",
+  "CreationTime": "2019-11-12T06:22:39.435Z",
+  "CreatorUserId": 0,
+  "OriginalTotal": 100,
+  "DiscountTotal": 20,
+  "FinalTotal": 80,
+  "Remark": "使用现金，整单折扣20%",
+  "OriginalBillNumber": "",
+  "ClientBillOrderDetailList": [
+    {
+      "BillNumber": "#BillNumber#",
+      "RowIndex": 1,
+      "OrderDetailId": "#ShiftKey#",
+      "OriginalOrderDetailId": "",
+      "ProductStandardId": "#ProductStandardId#",
+      "BusinessManId": "#UserId#",
+      "IsGift": false,
+      "ServerPrice": 50,
+      "Qty": 2,
+      "BackQty": 0,
+      "OriginalTotal": 100,
+      "DiscountTotal": 20,
+      "FinalTotal": 80
+    }
+  ],
+  "ClientBillPayDetailList": [
+    {
+      "BillNumber": "#BillNumber#",
+      "RowIndex": 1,
+      "PaymentWayId": "#RMBId#",
+      "Amount": 80,
+      "ProjectPayLog": {
+        "BillNumber": "",
+        "RowIndex": 0,
+        "ProjectMasterId": 0,
+        "ProjectMasterName": ""
+      },
+      "MemberCardPayLog": {
+        "BillNumber": "",
+        "RowIndex": 0,
+        "MemberPayId": 0
+      },
+      "GraspPayLog": {
+        "BillNumber": "", 
+        "RowIndex": 0,
+        "BusinessId": "",
+        "OutBillNumberId": "",
+        "GraspBillNumberId": ""
+      },
+      "PaymentWayName": "人民币"
+    }
+  ],
+  "MemberPersonName": "",
+  "CreatorUserName": "#UserName#"
+}</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="n"/>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The BillNumber field is required.\r\n","ValidationErrors":[{"Message":"The BillNumber field is required.","Members":["billNumber"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="18" s="2">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>CheckOut</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/services/app/Checkout/GetAll</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>获取账单列表</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="n"/>
+      <c r="G18" s="0" t="n"/>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="19" s="2">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>CheckOut</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
           <t>http://serverAddress/api/services/app/Checkout/PostShift</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>班次号为空时，上传班次</t>
         </is>
       </c>
-      <c r="E17" s="0" t="inlineStr">
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>{"ShiftKey":"",
  "UserId":"#UserId#",
@@ -25419,40 +26079,100 @@
 }</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
         </is>
       </c>
-      <c r="I17" s="0" t="n"/>
-      <c r="J17" s="0" t="n"/>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The ShiftKey field is required.\r\n","ValidationErrors":[{"Message":"The ShiftKey field is required.","Members":["shiftKey"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="14.25" r="18" s="2">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
+    <row customHeight="1" ht="14.25" r="20" s="2">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>CheckOut</t>
         </is>
       </c>
-      <c r="C18" s="0" t="inlineStr">
+      <c r="C20" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Checkout/PostShift</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>上传班次</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>{"ShiftKey":"#ShiftKey#",
+ "UserId":"#UserId#",
+ "StoreId":"#StoreId#",
+ "PosId":"#PosId#",
+ "BeginTime":"2019-11-13T07:23:32.673Z",
+ "EndTime":"2019-11-14T07:23:32.673Z"
+}</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="21" s="2">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>CheckOut</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/services/app/Checkout/PostShift</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>两次交班班次号相同，上传班次</t>
         </is>
       </c>
-      <c r="E18" s="0" t="inlineStr">
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>{"ShiftKey":"#LastShiftKey#",
  "UserId":"#UserId#",
@@ -25463,38 +26183,48 @@
 }</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
         </is>
       </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="14.25" r="19" s="2">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
+    <row customHeight="1" ht="14.25" r="22" s="2">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>CheckOut</t>
         </is>
       </c>
-      <c r="C19" s="0" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Checkout/PostShift</t>
         </is>
       </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>上传班次</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>上传班次成功后，未登录再次上传班次</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>{"ShiftKey":"#ShiftKey#",
  "UserId":"#UserId#",
@@ -25505,82 +26235,48 @@
 }</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>{"Success":True}</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="n"/>
-      <c r="J19" s="0" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"对不起,在处理您的请求期间,产生了一个服务器内部错误!","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="14.25" r="20" s="2">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>CheckOut</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>http://serverAddress/api/services/app/Checkout/PostShift</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>上传班次成功后，未登录再次上传班次</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="14.25" r="23" s="1">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TokenAuth</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/TokenAuth/Authenticate</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>登录pos端</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>{"ShiftKey":"#ShiftKey#",
- "UserId":"#UserId#",
- "StoreId":"#StoreId#",
- "PosId":"#PosId#",
- "BeginTime":"2019-11-13T07:23:32.673Z",
- "EndTime":"2019-11-14T07:23:32.673Z"
-}</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>{"Success":False}</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="21" s="1">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>TokenAuth</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>http://serverAddress/api/TokenAuth/Authenticate</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>登录pos端</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>{
   "ClientPosBindId": "#ClientPosBindId#",
@@ -25589,39 +26285,47 @@
 }</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I21" s="0" t="n"/>
-      <c r="J21" s="0" t="n"/>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiJmZGFkOTQ1MC0zYzY2LTQ4M2UtODNhNC0zNjBkNDNmZGQ2ZWUiLCJpYXQiOjE1NzQyNDMwNzUsIkp3dENsaWVudFVuaXF1ZUlkIjoiMzU0Y2JlMmQtOTMzYi00Yjk1LTlhM2YtOTJhMWI1YWJiMjc2IiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NjY0NjY2ODcxMTY5MDI0MCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ2NjQ2NjczODYyMjk1NTUyIiwibmJmIjoxNTc0MjQzMDc1LCJleHAiOjE1NzQzMjk0NzUsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.MQC6M-TkonrxVe6NlNz99f-tOqQ1GyOO4WvF3h7TVp0","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="14.25" r="22" s="2">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
+    <row customHeight="1" ht="14.25" r="24" s="2">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>CheckOut</t>
         </is>
       </c>
-      <c r="C22" s="0" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/Checkout/PostShiftList</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>批量上传班次</t>
         </is>
       </c>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>[{"ShiftKey":"#ShiftKey#",
  "UserId":"#UserId#",
@@ -25647,40 +26351,48 @@
 ]</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I22" s="0" t="n"/>
-      <c r="J22" s="0" t="n"/>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":[{"ShiftKey":"a84","IsOk":false,"ErrorMessage":"Cannot set MySqlCommand.CommandText when there is an open DataReader for this command; it must be closed first."},{"ShiftKey":"84","IsOk":false,"ErrorMessage":"Unknown column 'bm.ShiftKey' in 'where clause'"},{"ShiftKey":"b84","IsOk":false,"ErrorMessage":"Unknown column 'bm.ShiftKey' in 'where clause'"}],"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="23" s="1">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="14.25" r="25" s="1">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>TokenAuth</t>
         </is>
       </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/TokenAuth/Authenticate</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>登录pos端</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E25" s="1" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>{
   "ClientPosBindId": "#ClientPosBindId#",
@@ -25689,39 +26401,47 @@
 }</t>
         </is>
       </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I23" s="0" t="n"/>
-      <c r="J23" s="0" t="n"/>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":{"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1laWRlbnRpZmllciI6IjIiLCJodHRwOi8vc2NoZW1hcy54bWxzb2FwLm9yZy93cy8yMDA1LzA1L2lkZW50aXR5L2NsYWltcy9uYW1lIjoibHkiLCJBc3BOZXQuSWRlbnRpdHkuU2VjdXJpdHlTdGFtcCI6IkI3QkNQWVJRS01XM09LRDJLRU1EWTc2TkkzSkNENFJQIiwiaHR0cDovL3d3dy5hc3BuZXRib2lsZXJwbGF0ZS5jb20vaWRlbnRpdHkvY2xhaW1zL3RlbmFudElkIjoiMSIsInN1YiI6IjIiLCJqdGkiOiIyM2Y2ZGI2NC0zNDZlLTRjZTktYjgzMi02ZWUwZWE3Y2M2MjMiLCJpYXQiOjE1NzQyNDMwODEsIkp3dENsaWVudFVuaXF1ZUlkIjoiMWQ2ODVlZmEtMzg1Mi00OTA5LWIxMGQtMjZiOWJlODQ0ODg3IiwiSnd0Q2xpZW50U3RvcmVJZCI6IjY0NjY0NjY2ODcxMTY5MDI0MCIsIkp3dENsaWVudFRlbmFudElkIjoiMSIsIkp3dENsaWVudFBvc0lkIjoiNjQ2NjQ2NjczODYyMjk1NTUyIiwibmJmIjoxNTc0MjQzMDgxLCJleHAiOjE1NzQzMjk0ODEsImlzcyI6IkdyYXNwU2FhcyIsImF1ZCI6IkdyYXNwU2FhcyJ9.pZL2byYF4Bnw9ofX2dOv9VKoitAMHsrYAP5_l9SIneE","ExpireInSeconds":86400,"Permission":""},"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="14.25" r="24" s="2">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
+    <row customHeight="1" ht="14.25" r="26" s="2">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>BaseProduct</t>
         </is>
       </c>
-      <c r="C24" s="0" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/BaseProduct/CreateBaseProduct</t>
         </is>
       </c>
-      <c r="D24" s="0" t="inlineStr">
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>创建商品</t>
         </is>
       </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>{
   "BarCode": "#BarCode#",
@@ -25737,40 +26457,48 @@
 }</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="G26" s="5" t="n"/>
+      <c r="H26" s="3" t="inlineStr">
         <is>
           <t>{"Success":True}</t>
         </is>
       </c>
-      <c r="I24" s="0" t="n"/>
-      <c r="J24" s="0" t="n"/>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"规格：个-条码：90000003，该条码已被其他规格使用！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="14.25" r="25" s="2">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
+    <row customHeight="1" ht="14.25" r="27" s="2">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>BaseProduct</t>
         </is>
       </c>
-      <c r="C25" s="0" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>http://serverAddress/api/services/app/BaseProduct/CreateBaseProduct</t>
         </is>
       </c>
-      <c r="D25" s="0" t="inlineStr">
+      <c r="D27" s="0" t="inlineStr">
         <is>
           <t>错误的条形码，创建商品</t>
         </is>
       </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="E27" s="0" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>{
   "BarCode": "@#121",
@@ -25786,82 +26514,20 @@
 }</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="3" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
         </is>
       </c>
-      <c r="I25" s="0" t="n"/>
-      <c r="J25" s="0" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="26" s="2">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>BaseProduct</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>http://serverAddress/api/services/app/BaseProduct/GetProductInfo</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>获取条码库中的商品</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>{"BarCode":"#BarCode#"}</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>{"Success":True}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="27" s="2">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>BaseProduct</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>http://serverAddress/api/services/app/BaseProduct/GetProductInfo</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>输入错误的条码获取商品失败</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>{"BarCode ":"$123456"}</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>{"Success":False}</t>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"规格：个-条码：@#121，该条码已被其他规格使用！","Details":null,"ValidationErrors":null},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -25881,7 +26547,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>输入条码库中不存在的商品条码</t>
+          <t>获取条码库中的商品</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -25891,12 +26557,22 @@
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>{"BarCode ":"ssssssss"}</t>
-        </is>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>{"Success":False}</t>
+          <t>{"BarCode":"#LastBarCode#"}</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>{"Success":True}</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":true,"Error":null,"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -25916,22 +26592,122 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
+          <t>输入错误的条码获取商品失败</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>{"BarCode ":"$123456"}</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The BarCode field is required.\r\n","ValidationErrors":[{"Message":"The BarCode field is required.","Members":["barCode"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="30" s="2">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>BaseProduct</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/services/app/BaseProduct/GetProductInfo</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>输入条码库中不存在的商品条码</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>{"BarCode ":"ssssssss"}</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The BarCode field is required.\r\n","ValidationErrors":[{"Message":"The BarCode field is required.","Members":["barCode"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="31" s="2">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>BaseProduct</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>http://serverAddress/api/services/app/BaseProduct/GetProductInfo</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
           <t>不输入条码信息</t>
         </is>
       </c>
-      <c r="E29" s="0" t="inlineStr">
+      <c r="E31" s="0" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F29" s="0" t="inlineStr">
+      <c r="F31" s="0" t="inlineStr">
         <is>
           <t>{"BarCode ":""}</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
+      <c r="H31" s="0" t="inlineStr">
         <is>
           <t>{"Success":False}</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>{"Result":null,"TargetUrl":null,"Success":false,"Error":{"Code":0,"Message":"您的请求无效!","Details":"在验证过程中发现以下错误.\r\n - The BarCode field is required.\r\n","ValidationErrors":[{"Message":"The BarCode field is required.","Members":["barCode"]}]},"UnAuthorizedRequest":false,"__abp":true}</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -25950,7 +26726,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C19" sqref="E9 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -26125,8 +26901,8 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -26142,8 +26918,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>15000000002</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -26178,7 +26956,7 @@
     <row r="2">
       <c r="A2" s="8" t="inlineStr">
         <is>
-          <t>201911130000000023</t>
+          <t>201911130000000111</t>
         </is>
       </c>
     </row>
@@ -26211,7 +26989,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -26244,7 +27022,7 @@
     <row r="2">
       <c r="A2" s="8" t="inlineStr">
         <is>
-          <t>90000002</t>
+          <t>90000003</t>
         </is>
       </c>
     </row>
